--- a/report/HCI/Self Assessment Form - HCI.xlsx
+++ b/report/HCI/Self Assessment Form - HCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\HCI-TWEB_2025-26\report\HCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E0BC1-A0A9-43EA-83B0-CCA983F50A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1633871C-0E12-453D-86A8-0378E3BBEB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>please do not modify the form; do not introduce new columns; do not introduce new rows; we will process the form automatically!!</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Budau</t>
+  </si>
+  <si>
+    <t>We may have missed some inconsistent data</t>
+  </si>
+  <si>
+    <t>Huge datasets could be a challenge in terms of cleaning (e.g. Dropping duplicates in different buckets, needed not to saturate RAM, is not possible)</t>
   </si>
 </sst>
 </file>
@@ -366,8 +372,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -405,9 +411,6 @@
     <xf numFmtId="10" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -426,9 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -690,12 +690,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -720,12 +720,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -812,368 +812,374 @@
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="24"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="24"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="29"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="30" t="s">
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="23"/>
+      <c r="B34" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="24"/>
-      <c r="B35" s="30" t="s">
+    <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="23"/>
+      <c r="B35" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="24"/>
-      <c r="B36" s="28" t="s">
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="23"/>
+      <c r="B36" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="24"/>
-      <c r="B37" s="28" t="s">
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="23"/>
+      <c r="B37" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="24"/>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="24"/>
-      <c r="B39" s="26" t="s">
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="24"/>
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="23"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="24"/>
-      <c r="B42" s="28" t="s">
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="23"/>
+      <c r="B42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="24"/>
-      <c r="B43" s="28" t="s">
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="23"/>
+      <c r="B43" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="24"/>
-      <c r="B44" s="28" t="s">
+    <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="23"/>
+      <c r="B44" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="23"/>
       <c r="B45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="24"/>
+    <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="23"/>
       <c r="B46" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26" t="s">
+    <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="24"/>
-      <c r="B49" s="26" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -1181,76 +1187,76 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="30"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="15"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="24"/>
-      <c r="B51" s="30" t="s">
+      <c r="A51" s="23"/>
+      <c r="B51" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="24"/>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="24"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="23"/>
+      <c r="B53" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="24"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="24"/>
-      <c r="B56" s="26" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="24"/>
-      <c r="B57" s="26" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -1258,44 +1264,44 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="24"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="26" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -1303,3774 +1309,3774 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="24"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="29" t="s">
         <v>49</v>
       </c>
       <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="32"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="34"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
     </row>
     <row r="70" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="24"/>
-      <c r="B70" s="33" t="s">
+      <c r="A70" s="23"/>
+      <c r="B70" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
-      <c r="D71" s="27"/>
+      <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
-      <c r="D72" s="27"/>
+      <c r="D72" s="25"/>
     </row>
     <row r="73" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="32"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="32"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="31"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="32"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="31"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="32"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="31"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="24"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="24"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="24"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="24"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="24"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="24"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="24"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="24"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="24"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="24"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="24"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="24"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="24"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="24"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="24"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="24"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="24"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="24"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="24"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="24"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="24"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="24"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="24"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="24"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="24"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="4"/>
     </row>
     <row r="111" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="24"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="24"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="24"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="24"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="4"/>
     </row>
     <row r="115" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="24"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="4"/>
     </row>
     <row r="116" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="24"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="24"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="24"/>
+      <c r="A118" s="23"/>
       <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="24"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="4"/>
     </row>
     <row r="120" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="24"/>
+      <c r="A120" s="23"/>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="24"/>
+      <c r="A121" s="23"/>
       <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="24"/>
+      <c r="A122" s="23"/>
       <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="24"/>
+      <c r="A123" s="23"/>
       <c r="B123" s="4"/>
     </row>
     <row r="124" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="24"/>
+      <c r="A124" s="23"/>
       <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="24"/>
+      <c r="A125" s="23"/>
       <c r="B125" s="4"/>
     </row>
     <row r="126" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="24"/>
+      <c r="A126" s="23"/>
       <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="24"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="4"/>
     </row>
     <row r="128" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="24"/>
+      <c r="A128" s="23"/>
       <c r="B128" s="4"/>
     </row>
     <row r="129" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="24"/>
+      <c r="A129" s="23"/>
       <c r="B129" s="4"/>
     </row>
     <row r="130" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="24"/>
+      <c r="A130" s="23"/>
       <c r="B130" s="4"/>
     </row>
     <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="24"/>
+      <c r="A131" s="23"/>
       <c r="B131" s="4"/>
     </row>
     <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="24"/>
+      <c r="A132" s="23"/>
       <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="24"/>
+      <c r="A133" s="23"/>
       <c r="B133" s="4"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="24"/>
+      <c r="A134" s="23"/>
       <c r="B134" s="4"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="24"/>
+      <c r="A135" s="23"/>
       <c r="B135" s="4"/>
     </row>
     <row r="136" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="24"/>
+      <c r="A136" s="23"/>
       <c r="B136" s="4"/>
     </row>
     <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="24"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="4"/>
     </row>
     <row r="138" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="24"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="4"/>
     </row>
     <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="24"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="4"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="24"/>
+      <c r="A140" s="23"/>
       <c r="B140" s="4"/>
     </row>
     <row r="141" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="24"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="4"/>
     </row>
     <row r="142" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="24"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="4"/>
     </row>
     <row r="143" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="24"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="4"/>
     </row>
     <row r="144" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="24"/>
+      <c r="A144" s="23"/>
       <c r="B144" s="4"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="24"/>
+      <c r="A145" s="23"/>
       <c r="B145" s="4"/>
     </row>
     <row r="146" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="24"/>
+      <c r="A146" s="23"/>
       <c r="B146" s="4"/>
     </row>
     <row r="147" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="24"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="4"/>
     </row>
     <row r="148" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="24"/>
+      <c r="A148" s="23"/>
       <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="24"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="4"/>
     </row>
     <row r="150" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="24"/>
+      <c r="A150" s="23"/>
       <c r="B150" s="4"/>
     </row>
     <row r="151" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="24"/>
+      <c r="A151" s="23"/>
       <c r="B151" s="4"/>
     </row>
     <row r="152" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="24"/>
+      <c r="A152" s="23"/>
       <c r="B152" s="4"/>
     </row>
     <row r="153" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="24"/>
+      <c r="A153" s="23"/>
       <c r="B153" s="4"/>
     </row>
     <row r="154" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="24"/>
+      <c r="A154" s="23"/>
       <c r="B154" s="4"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="24"/>
+      <c r="A155" s="23"/>
       <c r="B155" s="4"/>
     </row>
     <row r="156" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="24"/>
+      <c r="A156" s="23"/>
       <c r="B156" s="4"/>
     </row>
     <row r="157" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="24"/>
+      <c r="A157" s="23"/>
       <c r="B157" s="4"/>
     </row>
     <row r="158" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="24"/>
+      <c r="A158" s="23"/>
       <c r="B158" s="4"/>
     </row>
     <row r="159" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="24"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="4"/>
     </row>
     <row r="160" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="24"/>
+      <c r="A160" s="23"/>
       <c r="B160" s="4"/>
     </row>
     <row r="161" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="24"/>
+      <c r="A161" s="23"/>
       <c r="B161" s="4"/>
     </row>
     <row r="162" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="24"/>
+      <c r="A162" s="23"/>
       <c r="B162" s="4"/>
     </row>
     <row r="163" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="24"/>
+      <c r="A163" s="23"/>
       <c r="B163" s="4"/>
     </row>
     <row r="164" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="24"/>
+      <c r="A164" s="23"/>
       <c r="B164" s="4"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="24"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="24"/>
+      <c r="A166" s="23"/>
       <c r="B166" s="4"/>
     </row>
     <row r="167" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="24"/>
+      <c r="A167" s="23"/>
       <c r="B167" s="4"/>
     </row>
     <row r="168" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="24"/>
+      <c r="A168" s="23"/>
       <c r="B168" s="4"/>
     </row>
     <row r="169" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="24"/>
+      <c r="A169" s="23"/>
       <c r="B169" s="4"/>
     </row>
     <row r="170" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="24"/>
+      <c r="A170" s="23"/>
       <c r="B170" s="4"/>
     </row>
     <row r="171" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="24"/>
+      <c r="A171" s="23"/>
       <c r="B171" s="4"/>
     </row>
     <row r="172" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="24"/>
+      <c r="A172" s="23"/>
       <c r="B172" s="4"/>
     </row>
     <row r="173" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="24"/>
+      <c r="A173" s="23"/>
       <c r="B173" s="4"/>
     </row>
     <row r="174" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="24"/>
+      <c r="A174" s="23"/>
       <c r="B174" s="4"/>
     </row>
     <row r="175" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="24"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="4"/>
     </row>
     <row r="176" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="24"/>
+      <c r="A176" s="23"/>
       <c r="B176" s="4"/>
     </row>
     <row r="177" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="24"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="4"/>
     </row>
     <row r="178" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="24"/>
+      <c r="A178" s="23"/>
       <c r="B178" s="4"/>
     </row>
     <row r="179" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="24"/>
+      <c r="A179" s="23"/>
       <c r="B179" s="4"/>
     </row>
     <row r="180" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="24"/>
+      <c r="A180" s="23"/>
       <c r="B180" s="4"/>
     </row>
     <row r="181" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="24"/>
+      <c r="A181" s="23"/>
       <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="24"/>
+      <c r="A182" s="23"/>
       <c r="B182" s="4"/>
     </row>
     <row r="183" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="24"/>
+      <c r="A183" s="23"/>
       <c r="B183" s="4"/>
     </row>
     <row r="184" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="24"/>
+      <c r="A184" s="23"/>
       <c r="B184" s="4"/>
     </row>
     <row r="185" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="24"/>
+      <c r="A185" s="23"/>
       <c r="B185" s="4"/>
     </row>
     <row r="186" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="24"/>
+      <c r="A186" s="23"/>
       <c r="B186" s="4"/>
     </row>
     <row r="187" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="24"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="4"/>
     </row>
     <row r="188" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="24"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="4"/>
     </row>
     <row r="189" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="24"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="4"/>
     </row>
     <row r="190" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="24"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="4"/>
     </row>
     <row r="191" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="24"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="4"/>
     </row>
     <row r="192" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="24"/>
+      <c r="A192" s="23"/>
       <c r="B192" s="4"/>
     </row>
     <row r="193" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="24"/>
+      <c r="A193" s="23"/>
       <c r="B193" s="4"/>
     </row>
     <row r="194" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="24"/>
+      <c r="A194" s="23"/>
       <c r="B194" s="4"/>
     </row>
     <row r="195" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="24"/>
+      <c r="A195" s="23"/>
       <c r="B195" s="4"/>
     </row>
     <row r="196" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="24"/>
+      <c r="A196" s="23"/>
       <c r="B196" s="4"/>
     </row>
     <row r="197" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="24"/>
+      <c r="A197" s="23"/>
       <c r="B197" s="4"/>
     </row>
     <row r="198" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="24"/>
+      <c r="A198" s="23"/>
       <c r="B198" s="4"/>
     </row>
     <row r="199" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="24"/>
+      <c r="A199" s="23"/>
       <c r="B199" s="4"/>
     </row>
     <row r="200" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="24"/>
+      <c r="A200" s="23"/>
       <c r="B200" s="4"/>
     </row>
     <row r="201" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="24"/>
+      <c r="A201" s="23"/>
       <c r="B201" s="4"/>
     </row>
     <row r="202" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="24"/>
+      <c r="A202" s="23"/>
       <c r="B202" s="4"/>
     </row>
     <row r="203" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="24"/>
+      <c r="A203" s="23"/>
       <c r="B203" s="4"/>
     </row>
     <row r="204" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="24"/>
+      <c r="A204" s="23"/>
       <c r="B204" s="4"/>
     </row>
     <row r="205" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="24"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="4"/>
     </row>
     <row r="206" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="24"/>
+      <c r="A206" s="23"/>
       <c r="B206" s="4"/>
     </row>
     <row r="207" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="24"/>
+      <c r="A207" s="23"/>
       <c r="B207" s="4"/>
     </row>
     <row r="208" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="24"/>
+      <c r="A208" s="23"/>
       <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="24"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="4"/>
     </row>
     <row r="210" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="24"/>
+      <c r="A210" s="23"/>
       <c r="B210" s="4"/>
     </row>
     <row r="211" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="24"/>
+      <c r="A211" s="23"/>
       <c r="B211" s="4"/>
     </row>
     <row r="212" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="24"/>
+      <c r="A212" s="23"/>
       <c r="B212" s="4"/>
     </row>
     <row r="213" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="24"/>
+      <c r="A213" s="23"/>
       <c r="B213" s="4"/>
     </row>
     <row r="214" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="24"/>
+      <c r="A214" s="23"/>
       <c r="B214" s="4"/>
     </row>
     <row r="215" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="24"/>
+      <c r="A215" s="23"/>
       <c r="B215" s="4"/>
     </row>
     <row r="216" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="24"/>
+      <c r="A216" s="23"/>
       <c r="B216" s="4"/>
     </row>
     <row r="217" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="24"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="4"/>
     </row>
     <row r="218" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="24"/>
+      <c r="A218" s="23"/>
       <c r="B218" s="4"/>
     </row>
     <row r="219" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="24"/>
+      <c r="A219" s="23"/>
       <c r="B219" s="4"/>
     </row>
     <row r="220" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="24"/>
+      <c r="A220" s="23"/>
       <c r="B220" s="4"/>
     </row>
     <row r="221" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="24"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="4"/>
     </row>
     <row r="222" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="24"/>
+      <c r="A222" s="23"/>
       <c r="B222" s="4"/>
     </row>
     <row r="223" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="24"/>
+      <c r="A223" s="23"/>
       <c r="B223" s="4"/>
     </row>
     <row r="224" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="24"/>
+      <c r="A224" s="23"/>
       <c r="B224" s="4"/>
     </row>
     <row r="225" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="24"/>
+      <c r="A225" s="23"/>
       <c r="B225" s="4"/>
     </row>
     <row r="226" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="24"/>
+      <c r="A226" s="23"/>
       <c r="B226" s="4"/>
     </row>
     <row r="227" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="24"/>
+      <c r="A227" s="23"/>
       <c r="B227" s="4"/>
     </row>
     <row r="228" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="24"/>
+      <c r="A228" s="23"/>
       <c r="B228" s="4"/>
     </row>
     <row r="229" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="24"/>
+      <c r="A229" s="23"/>
       <c r="B229" s="4"/>
     </row>
     <row r="230" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="24"/>
+      <c r="A230" s="23"/>
       <c r="B230" s="4"/>
     </row>
     <row r="231" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="24"/>
+      <c r="A231" s="23"/>
       <c r="B231" s="4"/>
     </row>
     <row r="232" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="24"/>
+      <c r="A232" s="23"/>
       <c r="B232" s="4"/>
     </row>
     <row r="233" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="24"/>
+      <c r="A233" s="23"/>
       <c r="B233" s="4"/>
     </row>
     <row r="234" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="24"/>
+      <c r="A234" s="23"/>
       <c r="B234" s="4"/>
     </row>
     <row r="235" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="24"/>
+      <c r="A235" s="23"/>
       <c r="B235" s="4"/>
     </row>
     <row r="236" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="24"/>
+      <c r="A236" s="23"/>
       <c r="B236" s="4"/>
     </row>
     <row r="237" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="24"/>
+      <c r="A237" s="23"/>
       <c r="B237" s="4"/>
     </row>
     <row r="238" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="24"/>
+      <c r="A238" s="23"/>
       <c r="B238" s="4"/>
     </row>
     <row r="239" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="24"/>
+      <c r="A239" s="23"/>
       <c r="B239" s="4"/>
     </row>
     <row r="240" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="24"/>
+      <c r="A240" s="23"/>
       <c r="B240" s="4"/>
     </row>
     <row r="241" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="24"/>
+      <c r="A241" s="23"/>
       <c r="B241" s="4"/>
     </row>
     <row r="242" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="24"/>
+      <c r="A242" s="23"/>
       <c r="B242" s="4"/>
     </row>
     <row r="243" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="24"/>
+      <c r="A243" s="23"/>
       <c r="B243" s="4"/>
     </row>
     <row r="244" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="24"/>
+      <c r="A244" s="23"/>
       <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="24"/>
+      <c r="A245" s="23"/>
       <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="24"/>
+      <c r="A246" s="23"/>
       <c r="B246" s="4"/>
     </row>
     <row r="247" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="24"/>
+      <c r="A247" s="23"/>
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="24"/>
+      <c r="A248" s="23"/>
       <c r="B248" s="4"/>
     </row>
     <row r="249" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="24"/>
+      <c r="A249" s="23"/>
       <c r="B249" s="4"/>
     </row>
     <row r="250" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="24"/>
+      <c r="A250" s="23"/>
       <c r="B250" s="4"/>
     </row>
     <row r="251" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="24"/>
+      <c r="A251" s="23"/>
       <c r="B251" s="4"/>
     </row>
     <row r="252" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="24"/>
+      <c r="A252" s="23"/>
       <c r="B252" s="4"/>
     </row>
     <row r="253" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="24"/>
+      <c r="A253" s="23"/>
       <c r="B253" s="4"/>
     </row>
     <row r="254" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="24"/>
+      <c r="A254" s="23"/>
       <c r="B254" s="4"/>
     </row>
     <row r="255" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="24"/>
+      <c r="A255" s="23"/>
       <c r="B255" s="4"/>
     </row>
     <row r="256" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="24"/>
+      <c r="A256" s="23"/>
       <c r="B256" s="4"/>
     </row>
     <row r="257" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="24"/>
+      <c r="A257" s="23"/>
       <c r="B257" s="4"/>
     </row>
     <row r="258" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="24"/>
+      <c r="A258" s="23"/>
       <c r="B258" s="4"/>
     </row>
     <row r="259" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="24"/>
+      <c r="A259" s="23"/>
       <c r="B259" s="4"/>
     </row>
     <row r="260" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="24"/>
+      <c r="A260" s="23"/>
       <c r="B260" s="4"/>
     </row>
     <row r="261" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="24"/>
+      <c r="A261" s="23"/>
       <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="24"/>
+      <c r="A262" s="23"/>
       <c r="B262" s="4"/>
     </row>
     <row r="263" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="24"/>
+      <c r="A263" s="23"/>
       <c r="B263" s="4"/>
     </row>
     <row r="264" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="24"/>
+      <c r="A264" s="23"/>
       <c r="B264" s="4"/>
     </row>
     <row r="265" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="24"/>
+      <c r="A265" s="23"/>
       <c r="B265" s="4"/>
     </row>
     <row r="266" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="24"/>
+      <c r="A266" s="23"/>
       <c r="B266" s="4"/>
     </row>
     <row r="267" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="24"/>
+      <c r="A267" s="23"/>
       <c r="B267" s="4"/>
     </row>
     <row r="268" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="24"/>
+      <c r="A268" s="23"/>
       <c r="B268" s="4"/>
     </row>
     <row r="269" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="24"/>
+      <c r="A269" s="23"/>
       <c r="B269" s="4"/>
     </row>
     <row r="270" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="24"/>
+      <c r="A270" s="23"/>
       <c r="B270" s="4"/>
     </row>
     <row r="271" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="24"/>
+      <c r="A271" s="23"/>
       <c r="B271" s="4"/>
     </row>
     <row r="272" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="24"/>
+      <c r="A272" s="23"/>
       <c r="B272" s="4"/>
     </row>
     <row r="273" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="24"/>
+      <c r="A273" s="23"/>
       <c r="B273" s="4"/>
     </row>
     <row r="274" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="24"/>
+      <c r="A274" s="23"/>
       <c r="B274" s="4"/>
     </row>
     <row r="275" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="24"/>
+      <c r="A275" s="23"/>
       <c r="B275" s="4"/>
     </row>
     <row r="276" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="24"/>
+      <c r="A276" s="23"/>
       <c r="B276" s="4"/>
     </row>
     <row r="277" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="24"/>
+      <c r="A277" s="23"/>
       <c r="B277" s="4"/>
     </row>
     <row r="278" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="24"/>
+      <c r="A278" s="23"/>
       <c r="B278" s="4"/>
     </row>
     <row r="279" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="24"/>
+      <c r="A279" s="23"/>
       <c r="B279" s="4"/>
     </row>
     <row r="280" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="24"/>
+      <c r="A280" s="23"/>
       <c r="B280" s="4"/>
     </row>
     <row r="281" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="24"/>
+      <c r="A281" s="23"/>
       <c r="B281" s="4"/>
     </row>
     <row r="282" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="24"/>
+      <c r="A282" s="23"/>
       <c r="B282" s="4"/>
     </row>
     <row r="283" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="24"/>
+      <c r="A283" s="23"/>
       <c r="B283" s="4"/>
     </row>
     <row r="284" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="24"/>
+      <c r="A284" s="23"/>
       <c r="B284" s="4"/>
     </row>
     <row r="285" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="24"/>
+      <c r="A285" s="23"/>
       <c r="B285" s="4"/>
     </row>
     <row r="286" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="24"/>
+      <c r="A286" s="23"/>
       <c r="B286" s="4"/>
     </row>
     <row r="287" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="24"/>
+      <c r="A287" s="23"/>
       <c r="B287" s="4"/>
     </row>
     <row r="288" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="24"/>
+      <c r="A288" s="23"/>
       <c r="B288" s="4"/>
     </row>
     <row r="289" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A289" s="24"/>
+      <c r="A289" s="23"/>
       <c r="B289" s="4"/>
     </row>
     <row r="290" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A290" s="24"/>
+      <c r="A290" s="23"/>
       <c r="B290" s="4"/>
     </row>
     <row r="291" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="24"/>
+      <c r="A291" s="23"/>
       <c r="B291" s="4"/>
     </row>
     <row r="292" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="24"/>
+      <c r="A292" s="23"/>
       <c r="B292" s="4"/>
     </row>
     <row r="293" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A293" s="24"/>
+      <c r="A293" s="23"/>
       <c r="B293" s="4"/>
     </row>
     <row r="294" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A294" s="24"/>
+      <c r="A294" s="23"/>
       <c r="B294" s="4"/>
     </row>
     <row r="295" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A295" s="24"/>
+      <c r="A295" s="23"/>
       <c r="B295" s="4"/>
     </row>
     <row r="296" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="24"/>
+      <c r="A296" s="23"/>
       <c r="B296" s="4"/>
     </row>
     <row r="297" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="24"/>
+      <c r="A297" s="23"/>
       <c r="B297" s="4"/>
     </row>
     <row r="298" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="24"/>
+      <c r="A298" s="23"/>
       <c r="B298" s="4"/>
     </row>
     <row r="299" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="24"/>
+      <c r="A299" s="23"/>
       <c r="B299" s="4"/>
     </row>
     <row r="300" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="24"/>
+      <c r="A300" s="23"/>
       <c r="B300" s="4"/>
     </row>
     <row r="301" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="24"/>
+      <c r="A301" s="23"/>
       <c r="B301" s="4"/>
     </row>
     <row r="302" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="24"/>
+      <c r="A302" s="23"/>
       <c r="B302" s="4"/>
     </row>
     <row r="303" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A303" s="24"/>
+      <c r="A303" s="23"/>
       <c r="B303" s="4"/>
     </row>
     <row r="304" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A304" s="24"/>
+      <c r="A304" s="23"/>
       <c r="B304" s="4"/>
     </row>
     <row r="305" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A305" s="24"/>
+      <c r="A305" s="23"/>
       <c r="B305" s="4"/>
     </row>
     <row r="306" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A306" s="24"/>
+      <c r="A306" s="23"/>
       <c r="B306" s="4"/>
     </row>
     <row r="307" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="24"/>
+      <c r="A307" s="23"/>
       <c r="B307" s="4"/>
     </row>
     <row r="308" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A308" s="24"/>
+      <c r="A308" s="23"/>
       <c r="B308" s="4"/>
     </row>
     <row r="309" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A309" s="24"/>
+      <c r="A309" s="23"/>
       <c r="B309" s="4"/>
     </row>
     <row r="310" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A310" s="24"/>
+      <c r="A310" s="23"/>
       <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A311" s="24"/>
+      <c r="A311" s="23"/>
       <c r="B311" s="4"/>
     </row>
     <row r="312" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A312" s="24"/>
+      <c r="A312" s="23"/>
       <c r="B312" s="4"/>
     </row>
     <row r="313" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A313" s="24"/>
+      <c r="A313" s="23"/>
       <c r="B313" s="4"/>
     </row>
     <row r="314" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A314" s="24"/>
+      <c r="A314" s="23"/>
       <c r="B314" s="4"/>
     </row>
     <row r="315" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A315" s="24"/>
+      <c r="A315" s="23"/>
       <c r="B315" s="4"/>
     </row>
     <row r="316" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A316" s="24"/>
+      <c r="A316" s="23"/>
       <c r="B316" s="4"/>
     </row>
     <row r="317" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A317" s="24"/>
+      <c r="A317" s="23"/>
       <c r="B317" s="4"/>
     </row>
     <row r="318" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A318" s="24"/>
+      <c r="A318" s="23"/>
       <c r="B318" s="4"/>
     </row>
     <row r="319" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A319" s="24"/>
+      <c r="A319" s="23"/>
       <c r="B319" s="4"/>
     </row>
     <row r="320" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A320" s="24"/>
+      <c r="A320" s="23"/>
       <c r="B320" s="4"/>
     </row>
     <row r="321" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A321" s="24"/>
+      <c r="A321" s="23"/>
       <c r="B321" s="4"/>
     </row>
     <row r="322" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A322" s="24"/>
+      <c r="A322" s="23"/>
       <c r="B322" s="4"/>
     </row>
     <row r="323" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A323" s="24"/>
+      <c r="A323" s="23"/>
       <c r="B323" s="4"/>
     </row>
     <row r="324" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A324" s="24"/>
+      <c r="A324" s="23"/>
       <c r="B324" s="4"/>
     </row>
     <row r="325" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A325" s="24"/>
+      <c r="A325" s="23"/>
       <c r="B325" s="4"/>
     </row>
     <row r="326" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A326" s="24"/>
+      <c r="A326" s="23"/>
       <c r="B326" s="4"/>
     </row>
     <row r="327" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A327" s="24"/>
+      <c r="A327" s="23"/>
       <c r="B327" s="4"/>
     </row>
     <row r="328" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A328" s="24"/>
+      <c r="A328" s="23"/>
       <c r="B328" s="4"/>
     </row>
     <row r="329" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A329" s="24"/>
+      <c r="A329" s="23"/>
       <c r="B329" s="4"/>
     </row>
     <row r="330" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A330" s="24"/>
+      <c r="A330" s="23"/>
       <c r="B330" s="4"/>
     </row>
     <row r="331" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A331" s="24"/>
+      <c r="A331" s="23"/>
       <c r="B331" s="4"/>
     </row>
     <row r="332" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A332" s="24"/>
+      <c r="A332" s="23"/>
       <c r="B332" s="4"/>
     </row>
     <row r="333" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A333" s="24"/>
+      <c r="A333" s="23"/>
       <c r="B333" s="4"/>
     </row>
     <row r="334" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A334" s="24"/>
+      <c r="A334" s="23"/>
       <c r="B334" s="4"/>
     </row>
     <row r="335" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A335" s="24"/>
+      <c r="A335" s="23"/>
       <c r="B335" s="4"/>
     </row>
     <row r="336" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A336" s="24"/>
+      <c r="A336" s="23"/>
       <c r="B336" s="4"/>
     </row>
     <row r="337" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A337" s="24"/>
+      <c r="A337" s="23"/>
       <c r="B337" s="4"/>
     </row>
     <row r="338" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A338" s="24"/>
+      <c r="A338" s="23"/>
       <c r="B338" s="4"/>
     </row>
     <row r="339" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A339" s="24"/>
+      <c r="A339" s="23"/>
       <c r="B339" s="4"/>
     </row>
     <row r="340" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A340" s="24"/>
+      <c r="A340" s="23"/>
       <c r="B340" s="4"/>
     </row>
     <row r="341" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A341" s="24"/>
+      <c r="A341" s="23"/>
       <c r="B341" s="4"/>
     </row>
     <row r="342" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A342" s="24"/>
+      <c r="A342" s="23"/>
       <c r="B342" s="4"/>
     </row>
     <row r="343" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A343" s="24"/>
+      <c r="A343" s="23"/>
       <c r="B343" s="4"/>
     </row>
     <row r="344" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A344" s="24"/>
+      <c r="A344" s="23"/>
       <c r="B344" s="4"/>
     </row>
     <row r="345" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A345" s="24"/>
+      <c r="A345" s="23"/>
       <c r="B345" s="4"/>
     </row>
     <row r="346" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A346" s="24"/>
+      <c r="A346" s="23"/>
       <c r="B346" s="4"/>
     </row>
     <row r="347" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A347" s="24"/>
+      <c r="A347" s="23"/>
       <c r="B347" s="4"/>
     </row>
     <row r="348" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A348" s="24"/>
+      <c r="A348" s="23"/>
       <c r="B348" s="4"/>
     </row>
     <row r="349" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A349" s="24"/>
+      <c r="A349" s="23"/>
       <c r="B349" s="4"/>
     </row>
     <row r="350" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A350" s="24"/>
+      <c r="A350" s="23"/>
       <c r="B350" s="4"/>
     </row>
     <row r="351" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A351" s="24"/>
+      <c r="A351" s="23"/>
       <c r="B351" s="4"/>
     </row>
     <row r="352" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A352" s="24"/>
+      <c r="A352" s="23"/>
       <c r="B352" s="4"/>
     </row>
     <row r="353" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A353" s="24"/>
+      <c r="A353" s="23"/>
       <c r="B353" s="4"/>
     </row>
     <row r="354" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A354" s="24"/>
+      <c r="A354" s="23"/>
       <c r="B354" s="4"/>
     </row>
     <row r="355" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A355" s="24"/>
+      <c r="A355" s="23"/>
       <c r="B355" s="4"/>
     </row>
     <row r="356" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A356" s="24"/>
+      <c r="A356" s="23"/>
       <c r="B356" s="4"/>
     </row>
     <row r="357" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A357" s="24"/>
+      <c r="A357" s="23"/>
       <c r="B357" s="4"/>
     </row>
     <row r="358" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A358" s="24"/>
+      <c r="A358" s="23"/>
       <c r="B358" s="4"/>
     </row>
     <row r="359" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A359" s="24"/>
+      <c r="A359" s="23"/>
       <c r="B359" s="4"/>
     </row>
     <row r="360" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A360" s="24"/>
+      <c r="A360" s="23"/>
       <c r="B360" s="4"/>
     </row>
     <row r="361" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A361" s="24"/>
+      <c r="A361" s="23"/>
       <c r="B361" s="4"/>
     </row>
     <row r="362" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A362" s="24"/>
+      <c r="A362" s="23"/>
       <c r="B362" s="4"/>
     </row>
     <row r="363" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A363" s="24"/>
+      <c r="A363" s="23"/>
       <c r="B363" s="4"/>
     </row>
     <row r="364" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A364" s="24"/>
+      <c r="A364" s="23"/>
       <c r="B364" s="4"/>
     </row>
     <row r="365" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A365" s="24"/>
+      <c r="A365" s="23"/>
       <c r="B365" s="4"/>
     </row>
     <row r="366" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A366" s="24"/>
+      <c r="A366" s="23"/>
       <c r="B366" s="4"/>
     </row>
     <row r="367" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A367" s="24"/>
+      <c r="A367" s="23"/>
       <c r="B367" s="4"/>
     </row>
     <row r="368" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A368" s="24"/>
+      <c r="A368" s="23"/>
       <c r="B368" s="4"/>
     </row>
     <row r="369" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A369" s="24"/>
+      <c r="A369" s="23"/>
       <c r="B369" s="4"/>
     </row>
     <row r="370" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A370" s="24"/>
+      <c r="A370" s="23"/>
       <c r="B370" s="4"/>
     </row>
     <row r="371" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A371" s="24"/>
+      <c r="A371" s="23"/>
       <c r="B371" s="4"/>
     </row>
     <row r="372" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A372" s="24"/>
+      <c r="A372" s="23"/>
       <c r="B372" s="4"/>
     </row>
     <row r="373" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="24"/>
+      <c r="A373" s="23"/>
       <c r="B373" s="4"/>
     </row>
     <row r="374" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="24"/>
+      <c r="A374" s="23"/>
       <c r="B374" s="4"/>
     </row>
     <row r="375" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A375" s="24"/>
+      <c r="A375" s="23"/>
       <c r="B375" s="4"/>
     </row>
     <row r="376" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A376" s="24"/>
+      <c r="A376" s="23"/>
       <c r="B376" s="4"/>
     </row>
     <row r="377" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A377" s="24"/>
+      <c r="A377" s="23"/>
       <c r="B377" s="4"/>
     </row>
     <row r="378" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A378" s="24"/>
+      <c r="A378" s="23"/>
       <c r="B378" s="4"/>
     </row>
     <row r="379" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A379" s="24"/>
+      <c r="A379" s="23"/>
       <c r="B379" s="4"/>
     </row>
     <row r="380" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A380" s="24"/>
+      <c r="A380" s="23"/>
       <c r="B380" s="4"/>
     </row>
     <row r="381" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A381" s="24"/>
+      <c r="A381" s="23"/>
       <c r="B381" s="4"/>
     </row>
     <row r="382" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A382" s="24"/>
+      <c r="A382" s="23"/>
       <c r="B382" s="4"/>
     </row>
     <row r="383" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A383" s="24"/>
+      <c r="A383" s="23"/>
       <c r="B383" s="4"/>
     </row>
     <row r="384" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A384" s="24"/>
+      <c r="A384" s="23"/>
       <c r="B384" s="4"/>
     </row>
     <row r="385" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A385" s="24"/>
+      <c r="A385" s="23"/>
       <c r="B385" s="4"/>
     </row>
     <row r="386" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A386" s="24"/>
+      <c r="A386" s="23"/>
       <c r="B386" s="4"/>
     </row>
     <row r="387" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A387" s="24"/>
+      <c r="A387" s="23"/>
       <c r="B387" s="4"/>
     </row>
     <row r="388" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A388" s="24"/>
+      <c r="A388" s="23"/>
       <c r="B388" s="4"/>
     </row>
     <row r="389" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A389" s="24"/>
+      <c r="A389" s="23"/>
       <c r="B389" s="4"/>
     </row>
     <row r="390" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A390" s="24"/>
+      <c r="A390" s="23"/>
       <c r="B390" s="4"/>
     </row>
     <row r="391" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A391" s="24"/>
+      <c r="A391" s="23"/>
       <c r="B391" s="4"/>
     </row>
     <row r="392" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A392" s="24"/>
+      <c r="A392" s="23"/>
       <c r="B392" s="4"/>
     </row>
     <row r="393" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A393" s="24"/>
+      <c r="A393" s="23"/>
       <c r="B393" s="4"/>
     </row>
     <row r="394" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A394" s="24"/>
+      <c r="A394" s="23"/>
       <c r="B394" s="4"/>
     </row>
     <row r="395" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A395" s="24"/>
+      <c r="A395" s="23"/>
       <c r="B395" s="4"/>
     </row>
     <row r="396" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A396" s="24"/>
+      <c r="A396" s="23"/>
       <c r="B396" s="4"/>
     </row>
     <row r="397" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A397" s="24"/>
+      <c r="A397" s="23"/>
       <c r="B397" s="4"/>
     </row>
     <row r="398" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A398" s="24"/>
+      <c r="A398" s="23"/>
       <c r="B398" s="4"/>
     </row>
     <row r="399" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A399" s="24"/>
+      <c r="A399" s="23"/>
       <c r="B399" s="4"/>
     </row>
     <row r="400" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A400" s="24"/>
+      <c r="A400" s="23"/>
       <c r="B400" s="4"/>
     </row>
     <row r="401" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A401" s="24"/>
+      <c r="A401" s="23"/>
       <c r="B401" s="4"/>
     </row>
     <row r="402" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A402" s="24"/>
+      <c r="A402" s="23"/>
       <c r="B402" s="4"/>
     </row>
     <row r="403" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A403" s="24"/>
+      <c r="A403" s="23"/>
       <c r="B403" s="4"/>
     </row>
     <row r="404" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A404" s="24"/>
+      <c r="A404" s="23"/>
       <c r="B404" s="4"/>
     </row>
     <row r="405" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A405" s="24"/>
+      <c r="A405" s="23"/>
       <c r="B405" s="4"/>
     </row>
     <row r="406" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A406" s="24"/>
+      <c r="A406" s="23"/>
       <c r="B406" s="4"/>
     </row>
     <row r="407" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A407" s="24"/>
+      <c r="A407" s="23"/>
       <c r="B407" s="4"/>
     </row>
     <row r="408" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A408" s="24"/>
+      <c r="A408" s="23"/>
       <c r="B408" s="4"/>
     </row>
     <row r="409" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A409" s="24"/>
+      <c r="A409" s="23"/>
       <c r="B409" s="4"/>
     </row>
     <row r="410" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A410" s="24"/>
+      <c r="A410" s="23"/>
       <c r="B410" s="4"/>
     </row>
     <row r="411" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A411" s="24"/>
+      <c r="A411" s="23"/>
       <c r="B411" s="4"/>
     </row>
     <row r="412" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A412" s="24"/>
+      <c r="A412" s="23"/>
       <c r="B412" s="4"/>
     </row>
     <row r="413" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A413" s="24"/>
+      <c r="A413" s="23"/>
       <c r="B413" s="4"/>
     </row>
     <row r="414" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A414" s="24"/>
+      <c r="A414" s="23"/>
       <c r="B414" s="4"/>
     </row>
     <row r="415" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A415" s="24"/>
+      <c r="A415" s="23"/>
       <c r="B415" s="4"/>
     </row>
     <row r="416" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A416" s="24"/>
+      <c r="A416" s="23"/>
       <c r="B416" s="4"/>
     </row>
     <row r="417" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A417" s="24"/>
+      <c r="A417" s="23"/>
       <c r="B417" s="4"/>
     </row>
     <row r="418" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A418" s="24"/>
+      <c r="A418" s="23"/>
       <c r="B418" s="4"/>
     </row>
     <row r="419" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A419" s="24"/>
+      <c r="A419" s="23"/>
       <c r="B419" s="4"/>
     </row>
     <row r="420" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A420" s="24"/>
+      <c r="A420" s="23"/>
       <c r="B420" s="4"/>
     </row>
     <row r="421" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A421" s="24"/>
+      <c r="A421" s="23"/>
       <c r="B421" s="4"/>
     </row>
     <row r="422" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A422" s="24"/>
+      <c r="A422" s="23"/>
       <c r="B422" s="4"/>
     </row>
     <row r="423" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A423" s="24"/>
+      <c r="A423" s="23"/>
       <c r="B423" s="4"/>
     </row>
     <row r="424" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A424" s="24"/>
+      <c r="A424" s="23"/>
       <c r="B424" s="4"/>
     </row>
     <row r="425" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A425" s="24"/>
+      <c r="A425" s="23"/>
       <c r="B425" s="4"/>
     </row>
     <row r="426" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A426" s="24"/>
+      <c r="A426" s="23"/>
       <c r="B426" s="4"/>
     </row>
     <row r="427" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A427" s="24"/>
+      <c r="A427" s="23"/>
       <c r="B427" s="4"/>
     </row>
     <row r="428" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A428" s="24"/>
+      <c r="A428" s="23"/>
       <c r="B428" s="4"/>
     </row>
     <row r="429" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A429" s="24"/>
+      <c r="A429" s="23"/>
       <c r="B429" s="4"/>
     </row>
     <row r="430" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A430" s="24"/>
+      <c r="A430" s="23"/>
       <c r="B430" s="4"/>
     </row>
     <row r="431" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A431" s="24"/>
+      <c r="A431" s="23"/>
       <c r="B431" s="4"/>
     </row>
     <row r="432" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="24"/>
+      <c r="A432" s="23"/>
       <c r="B432" s="4"/>
     </row>
     <row r="433" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A433" s="24"/>
+      <c r="A433" s="23"/>
       <c r="B433" s="4"/>
     </row>
     <row r="434" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A434" s="24"/>
+      <c r="A434" s="23"/>
       <c r="B434" s="4"/>
     </row>
     <row r="435" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A435" s="24"/>
+      <c r="A435" s="23"/>
       <c r="B435" s="4"/>
     </row>
     <row r="436" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A436" s="24"/>
+      <c r="A436" s="23"/>
       <c r="B436" s="4"/>
     </row>
     <row r="437" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A437" s="24"/>
+      <c r="A437" s="23"/>
       <c r="B437" s="4"/>
     </row>
     <row r="438" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A438" s="24"/>
+      <c r="A438" s="23"/>
       <c r="B438" s="4"/>
     </row>
     <row r="439" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A439" s="24"/>
+      <c r="A439" s="23"/>
       <c r="B439" s="4"/>
     </row>
     <row r="440" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A440" s="24"/>
+      <c r="A440" s="23"/>
       <c r="B440" s="4"/>
     </row>
     <row r="441" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A441" s="24"/>
+      <c r="A441" s="23"/>
       <c r="B441" s="4"/>
     </row>
     <row r="442" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A442" s="24"/>
+      <c r="A442" s="23"/>
       <c r="B442" s="4"/>
     </row>
     <row r="443" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A443" s="24"/>
+      <c r="A443" s="23"/>
       <c r="B443" s="4"/>
     </row>
     <row r="444" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A444" s="24"/>
+      <c r="A444" s="23"/>
       <c r="B444" s="4"/>
     </row>
     <row r="445" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A445" s="24"/>
+      <c r="A445" s="23"/>
       <c r="B445" s="4"/>
     </row>
     <row r="446" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A446" s="24"/>
+      <c r="A446" s="23"/>
       <c r="B446" s="4"/>
     </row>
     <row r="447" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A447" s="24"/>
+      <c r="A447" s="23"/>
       <c r="B447" s="4"/>
     </row>
     <row r="448" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A448" s="24"/>
+      <c r="A448" s="23"/>
       <c r="B448" s="4"/>
     </row>
     <row r="449" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A449" s="24"/>
+      <c r="A449" s="23"/>
       <c r="B449" s="4"/>
     </row>
     <row r="450" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A450" s="24"/>
+      <c r="A450" s="23"/>
       <c r="B450" s="4"/>
     </row>
     <row r="451" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A451" s="24"/>
+      <c r="A451" s="23"/>
       <c r="B451" s="4"/>
     </row>
     <row r="452" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A452" s="24"/>
+      <c r="A452" s="23"/>
       <c r="B452" s="4"/>
     </row>
     <row r="453" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A453" s="24"/>
+      <c r="A453" s="23"/>
       <c r="B453" s="4"/>
     </row>
     <row r="454" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A454" s="24"/>
+      <c r="A454" s="23"/>
       <c r="B454" s="4"/>
     </row>
     <row r="455" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A455" s="24"/>
+      <c r="A455" s="23"/>
       <c r="B455" s="4"/>
     </row>
     <row r="456" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A456" s="24"/>
+      <c r="A456" s="23"/>
       <c r="B456" s="4"/>
     </row>
     <row r="457" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A457" s="24"/>
+      <c r="A457" s="23"/>
       <c r="B457" s="4"/>
     </row>
     <row r="458" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A458" s="24"/>
+      <c r="A458" s="23"/>
       <c r="B458" s="4"/>
     </row>
     <row r="459" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A459" s="24"/>
+      <c r="A459" s="23"/>
       <c r="B459" s="4"/>
     </row>
     <row r="460" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A460" s="24"/>
+      <c r="A460" s="23"/>
       <c r="B460" s="4"/>
     </row>
     <row r="461" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A461" s="24"/>
+      <c r="A461" s="23"/>
       <c r="B461" s="4"/>
     </row>
     <row r="462" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A462" s="24"/>
+      <c r="A462" s="23"/>
       <c r="B462" s="4"/>
     </row>
     <row r="463" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A463" s="24"/>
+      <c r="A463" s="23"/>
       <c r="B463" s="4"/>
     </row>
     <row r="464" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A464" s="24"/>
+      <c r="A464" s="23"/>
       <c r="B464" s="4"/>
     </row>
     <row r="465" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A465" s="24"/>
+      <c r="A465" s="23"/>
       <c r="B465" s="4"/>
     </row>
     <row r="466" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A466" s="24"/>
+      <c r="A466" s="23"/>
       <c r="B466" s="4"/>
     </row>
     <row r="467" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A467" s="24"/>
+      <c r="A467" s="23"/>
       <c r="B467" s="4"/>
     </row>
     <row r="468" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A468" s="24"/>
+      <c r="A468" s="23"/>
       <c r="B468" s="4"/>
     </row>
     <row r="469" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A469" s="24"/>
+      <c r="A469" s="23"/>
       <c r="B469" s="4"/>
     </row>
     <row r="470" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A470" s="24"/>
+      <c r="A470" s="23"/>
       <c r="B470" s="4"/>
     </row>
     <row r="471" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A471" s="24"/>
+      <c r="A471" s="23"/>
       <c r="B471" s="4"/>
     </row>
     <row r="472" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A472" s="24"/>
+      <c r="A472" s="23"/>
       <c r="B472" s="4"/>
     </row>
     <row r="473" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A473" s="24"/>
+      <c r="A473" s="23"/>
       <c r="B473" s="4"/>
     </row>
     <row r="474" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A474" s="24"/>
+      <c r="A474" s="23"/>
       <c r="B474" s="4"/>
     </row>
     <row r="475" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A475" s="24"/>
+      <c r="A475" s="23"/>
       <c r="B475" s="4"/>
     </row>
     <row r="476" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A476" s="24"/>
+      <c r="A476" s="23"/>
       <c r="B476" s="4"/>
     </row>
     <row r="477" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A477" s="24"/>
+      <c r="A477" s="23"/>
       <c r="B477" s="4"/>
     </row>
     <row r="478" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A478" s="24"/>
+      <c r="A478" s="23"/>
       <c r="B478" s="4"/>
     </row>
     <row r="479" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A479" s="24"/>
+      <c r="A479" s="23"/>
       <c r="B479" s="4"/>
     </row>
     <row r="480" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A480" s="24"/>
+      <c r="A480" s="23"/>
       <c r="B480" s="4"/>
     </row>
     <row r="481" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A481" s="24"/>
+      <c r="A481" s="23"/>
       <c r="B481" s="4"/>
     </row>
     <row r="482" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A482" s="24"/>
+      <c r="A482" s="23"/>
       <c r="B482" s="4"/>
     </row>
     <row r="483" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A483" s="24"/>
+      <c r="A483" s="23"/>
       <c r="B483" s="4"/>
     </row>
     <row r="484" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A484" s="24"/>
+      <c r="A484" s="23"/>
       <c r="B484" s="4"/>
     </row>
     <row r="485" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A485" s="24"/>
+      <c r="A485" s="23"/>
       <c r="B485" s="4"/>
     </row>
     <row r="486" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A486" s="24"/>
+      <c r="A486" s="23"/>
       <c r="B486" s="4"/>
     </row>
     <row r="487" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A487" s="24"/>
+      <c r="A487" s="23"/>
       <c r="B487" s="4"/>
     </row>
     <row r="488" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A488" s="24"/>
+      <c r="A488" s="23"/>
       <c r="B488" s="4"/>
     </row>
     <row r="489" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A489" s="24"/>
+      <c r="A489" s="23"/>
       <c r="B489" s="4"/>
     </row>
     <row r="490" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A490" s="24"/>
+      <c r="A490" s="23"/>
       <c r="B490" s="4"/>
     </row>
     <row r="491" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A491" s="24"/>
+      <c r="A491" s="23"/>
       <c r="B491" s="4"/>
     </row>
     <row r="492" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A492" s="24"/>
+      <c r="A492" s="23"/>
       <c r="B492" s="4"/>
     </row>
     <row r="493" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A493" s="24"/>
+      <c r="A493" s="23"/>
       <c r="B493" s="4"/>
     </row>
     <row r="494" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A494" s="24"/>
+      <c r="A494" s="23"/>
       <c r="B494" s="4"/>
     </row>
     <row r="495" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A495" s="24"/>
+      <c r="A495" s="23"/>
       <c r="B495" s="4"/>
     </row>
     <row r="496" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A496" s="24"/>
+      <c r="A496" s="23"/>
       <c r="B496" s="4"/>
     </row>
     <row r="497" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A497" s="24"/>
+      <c r="A497" s="23"/>
       <c r="B497" s="4"/>
     </row>
     <row r="498" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A498" s="24"/>
+      <c r="A498" s="23"/>
       <c r="B498" s="4"/>
     </row>
     <row r="499" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A499" s="24"/>
+      <c r="A499" s="23"/>
       <c r="B499" s="4"/>
     </row>
     <row r="500" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A500" s="24"/>
+      <c r="A500" s="23"/>
       <c r="B500" s="4"/>
     </row>
     <row r="501" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A501" s="24"/>
+      <c r="A501" s="23"/>
       <c r="B501" s="4"/>
     </row>
     <row r="502" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A502" s="24"/>
+      <c r="A502" s="23"/>
       <c r="B502" s="4"/>
     </row>
     <row r="503" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A503" s="24"/>
+      <c r="A503" s="23"/>
       <c r="B503" s="4"/>
     </row>
     <row r="504" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A504" s="24"/>
+      <c r="A504" s="23"/>
       <c r="B504" s="4"/>
     </row>
     <row r="505" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A505" s="24"/>
+      <c r="A505" s="23"/>
       <c r="B505" s="4"/>
     </row>
     <row r="506" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A506" s="24"/>
+      <c r="A506" s="23"/>
       <c r="B506" s="4"/>
     </row>
     <row r="507" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A507" s="24"/>
+      <c r="A507" s="23"/>
       <c r="B507" s="4"/>
     </row>
     <row r="508" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A508" s="24"/>
+      <c r="A508" s="23"/>
       <c r="B508" s="4"/>
     </row>
     <row r="509" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A509" s="24"/>
+      <c r="A509" s="23"/>
       <c r="B509" s="4"/>
     </row>
     <row r="510" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A510" s="24"/>
+      <c r="A510" s="23"/>
       <c r="B510" s="4"/>
     </row>
     <row r="511" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A511" s="24"/>
+      <c r="A511" s="23"/>
       <c r="B511" s="4"/>
     </row>
     <row r="512" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A512" s="24"/>
+      <c r="A512" s="23"/>
       <c r="B512" s="4"/>
     </row>
     <row r="513" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A513" s="24"/>
+      <c r="A513" s="23"/>
       <c r="B513" s="4"/>
     </row>
     <row r="514" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A514" s="24"/>
+      <c r="A514" s="23"/>
       <c r="B514" s="4"/>
     </row>
     <row r="515" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A515" s="24"/>
+      <c r="A515" s="23"/>
       <c r="B515" s="4"/>
     </row>
     <row r="516" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A516" s="24"/>
+      <c r="A516" s="23"/>
       <c r="B516" s="4"/>
     </row>
     <row r="517" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A517" s="24"/>
+      <c r="A517" s="23"/>
       <c r="B517" s="4"/>
     </row>
     <row r="518" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A518" s="24"/>
+      <c r="A518" s="23"/>
       <c r="B518" s="4"/>
     </row>
     <row r="519" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A519" s="24"/>
+      <c r="A519" s="23"/>
       <c r="B519" s="4"/>
     </row>
     <row r="520" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A520" s="24"/>
+      <c r="A520" s="23"/>
       <c r="B520" s="4"/>
     </row>
     <row r="521" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A521" s="24"/>
+      <c r="A521" s="23"/>
       <c r="B521" s="4"/>
     </row>
     <row r="522" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A522" s="24"/>
+      <c r="A522" s="23"/>
       <c r="B522" s="4"/>
     </row>
     <row r="523" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A523" s="24"/>
+      <c r="A523" s="23"/>
       <c r="B523" s="4"/>
     </row>
     <row r="524" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A524" s="24"/>
+      <c r="A524" s="23"/>
       <c r="B524" s="4"/>
     </row>
     <row r="525" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A525" s="24"/>
+      <c r="A525" s="23"/>
       <c r="B525" s="4"/>
     </row>
     <row r="526" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A526" s="24"/>
+      <c r="A526" s="23"/>
       <c r="B526" s="4"/>
     </row>
     <row r="527" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A527" s="24"/>
+      <c r="A527" s="23"/>
       <c r="B527" s="4"/>
     </row>
     <row r="528" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A528" s="24"/>
+      <c r="A528" s="23"/>
       <c r="B528" s="4"/>
     </row>
     <row r="529" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A529" s="24"/>
+      <c r="A529" s="23"/>
       <c r="B529" s="4"/>
     </row>
     <row r="530" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A530" s="24"/>
+      <c r="A530" s="23"/>
       <c r="B530" s="4"/>
     </row>
     <row r="531" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A531" s="24"/>
+      <c r="A531" s="23"/>
       <c r="B531" s="4"/>
     </row>
     <row r="532" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A532" s="24"/>
+      <c r="A532" s="23"/>
       <c r="B532" s="4"/>
     </row>
     <row r="533" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A533" s="24"/>
+      <c r="A533" s="23"/>
       <c r="B533" s="4"/>
     </row>
     <row r="534" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A534" s="24"/>
+      <c r="A534" s="23"/>
       <c r="B534" s="4"/>
     </row>
     <row r="535" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A535" s="24"/>
+      <c r="A535" s="23"/>
       <c r="B535" s="4"/>
     </row>
     <row r="536" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A536" s="24"/>
+      <c r="A536" s="23"/>
       <c r="B536" s="4"/>
     </row>
     <row r="537" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A537" s="24"/>
+      <c r="A537" s="23"/>
       <c r="B537" s="4"/>
     </row>
     <row r="538" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A538" s="24"/>
+      <c r="A538" s="23"/>
       <c r="B538" s="4"/>
     </row>
     <row r="539" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A539" s="24"/>
+      <c r="A539" s="23"/>
       <c r="B539" s="4"/>
     </row>
     <row r="540" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A540" s="24"/>
+      <c r="A540" s="23"/>
       <c r="B540" s="4"/>
     </row>
     <row r="541" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A541" s="24"/>
+      <c r="A541" s="23"/>
       <c r="B541" s="4"/>
     </row>
     <row r="542" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A542" s="24"/>
+      <c r="A542" s="23"/>
       <c r="B542" s="4"/>
     </row>
     <row r="543" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A543" s="24"/>
+      <c r="A543" s="23"/>
       <c r="B543" s="4"/>
     </row>
     <row r="544" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A544" s="24"/>
+      <c r="A544" s="23"/>
       <c r="B544" s="4"/>
     </row>
     <row r="545" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A545" s="24"/>
+      <c r="A545" s="23"/>
       <c r="B545" s="4"/>
     </row>
     <row r="546" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A546" s="24"/>
+      <c r="A546" s="23"/>
       <c r="B546" s="4"/>
     </row>
     <row r="547" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A547" s="24"/>
+      <c r="A547" s="23"/>
       <c r="B547" s="4"/>
     </row>
     <row r="548" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A548" s="24"/>
+      <c r="A548" s="23"/>
       <c r="B548" s="4"/>
     </row>
     <row r="549" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A549" s="24"/>
+      <c r="A549" s="23"/>
       <c r="B549" s="4"/>
     </row>
     <row r="550" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A550" s="24"/>
+      <c r="A550" s="23"/>
       <c r="B550" s="4"/>
     </row>
     <row r="551" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A551" s="24"/>
+      <c r="A551" s="23"/>
       <c r="B551" s="4"/>
     </row>
     <row r="552" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A552" s="24"/>
+      <c r="A552" s="23"/>
       <c r="B552" s="4"/>
     </row>
     <row r="553" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A553" s="24"/>
+      <c r="A553" s="23"/>
       <c r="B553" s="4"/>
     </row>
     <row r="554" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A554" s="24"/>
+      <c r="A554" s="23"/>
       <c r="B554" s="4"/>
     </row>
     <row r="555" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A555" s="24"/>
+      <c r="A555" s="23"/>
       <c r="B555" s="4"/>
     </row>
     <row r="556" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A556" s="24"/>
+      <c r="A556" s="23"/>
       <c r="B556" s="4"/>
     </row>
     <row r="557" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A557" s="24"/>
+      <c r="A557" s="23"/>
       <c r="B557" s="4"/>
     </row>
     <row r="558" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A558" s="24"/>
+      <c r="A558" s="23"/>
       <c r="B558" s="4"/>
     </row>
     <row r="559" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A559" s="24"/>
+      <c r="A559" s="23"/>
       <c r="B559" s="4"/>
     </row>
     <row r="560" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A560" s="24"/>
+      <c r="A560" s="23"/>
       <c r="B560" s="4"/>
     </row>
     <row r="561" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A561" s="24"/>
+      <c r="A561" s="23"/>
       <c r="B561" s="4"/>
     </row>
     <row r="562" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A562" s="24"/>
+      <c r="A562" s="23"/>
       <c r="B562" s="4"/>
     </row>
     <row r="563" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A563" s="24"/>
+      <c r="A563" s="23"/>
       <c r="B563" s="4"/>
     </row>
     <row r="564" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A564" s="24"/>
+      <c r="A564" s="23"/>
       <c r="B564" s="4"/>
     </row>
     <row r="565" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A565" s="24"/>
+      <c r="A565" s="23"/>
       <c r="B565" s="4"/>
     </row>
     <row r="566" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A566" s="24"/>
+      <c r="A566" s="23"/>
       <c r="B566" s="4"/>
     </row>
     <row r="567" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A567" s="24"/>
+      <c r="A567" s="23"/>
       <c r="B567" s="4"/>
     </row>
     <row r="568" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A568" s="24"/>
+      <c r="A568" s="23"/>
       <c r="B568" s="4"/>
     </row>
     <row r="569" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A569" s="24"/>
+      <c r="A569" s="23"/>
       <c r="B569" s="4"/>
     </row>
     <row r="570" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A570" s="24"/>
+      <c r="A570" s="23"/>
       <c r="B570" s="4"/>
     </row>
     <row r="571" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A571" s="24"/>
+      <c r="A571" s="23"/>
       <c r="B571" s="4"/>
     </row>
     <row r="572" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A572" s="24"/>
+      <c r="A572" s="23"/>
       <c r="B572" s="4"/>
     </row>
     <row r="573" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A573" s="24"/>
+      <c r="A573" s="23"/>
       <c r="B573" s="4"/>
     </row>
     <row r="574" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A574" s="24"/>
+      <c r="A574" s="23"/>
       <c r="B574" s="4"/>
     </row>
     <row r="575" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A575" s="24"/>
+      <c r="A575" s="23"/>
       <c r="B575" s="4"/>
     </row>
     <row r="576" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A576" s="24"/>
+      <c r="A576" s="23"/>
       <c r="B576" s="4"/>
     </row>
     <row r="577" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A577" s="24"/>
+      <c r="A577" s="23"/>
       <c r="B577" s="4"/>
     </row>
     <row r="578" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A578" s="24"/>
+      <c r="A578" s="23"/>
       <c r="B578" s="4"/>
     </row>
     <row r="579" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A579" s="24"/>
+      <c r="A579" s="23"/>
       <c r="B579" s="4"/>
     </row>
     <row r="580" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A580" s="24"/>
+      <c r="A580" s="23"/>
       <c r="B580" s="4"/>
     </row>
     <row r="581" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A581" s="24"/>
+      <c r="A581" s="23"/>
       <c r="B581" s="4"/>
     </row>
     <row r="582" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A582" s="24"/>
+      <c r="A582" s="23"/>
       <c r="B582" s="4"/>
     </row>
     <row r="583" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A583" s="24"/>
+      <c r="A583" s="23"/>
       <c r="B583" s="4"/>
     </row>
     <row r="584" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A584" s="24"/>
+      <c r="A584" s="23"/>
       <c r="B584" s="4"/>
     </row>
     <row r="585" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A585" s="24"/>
+      <c r="A585" s="23"/>
       <c r="B585" s="4"/>
     </row>
     <row r="586" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A586" s="24"/>
+      <c r="A586" s="23"/>
       <c r="B586" s="4"/>
     </row>
     <row r="587" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A587" s="24"/>
+      <c r="A587" s="23"/>
       <c r="B587" s="4"/>
     </row>
     <row r="588" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A588" s="24"/>
+      <c r="A588" s="23"/>
       <c r="B588" s="4"/>
     </row>
     <row r="589" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A589" s="24"/>
+      <c r="A589" s="23"/>
       <c r="B589" s="4"/>
     </row>
     <row r="590" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A590" s="24"/>
+      <c r="A590" s="23"/>
       <c r="B590" s="4"/>
     </row>
     <row r="591" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A591" s="24"/>
+      <c r="A591" s="23"/>
       <c r="B591" s="4"/>
     </row>
     <row r="592" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A592" s="24"/>
+      <c r="A592" s="23"/>
       <c r="B592" s="4"/>
     </row>
     <row r="593" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A593" s="24"/>
+      <c r="A593" s="23"/>
       <c r="B593" s="4"/>
     </row>
     <row r="594" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A594" s="24"/>
+      <c r="A594" s="23"/>
       <c r="B594" s="4"/>
     </row>
     <row r="595" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A595" s="24"/>
+      <c r="A595" s="23"/>
       <c r="B595" s="4"/>
     </row>
     <row r="596" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A596" s="24"/>
+      <c r="A596" s="23"/>
       <c r="B596" s="4"/>
     </row>
     <row r="597" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A597" s="24"/>
+      <c r="A597" s="23"/>
       <c r="B597" s="4"/>
     </row>
     <row r="598" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A598" s="24"/>
+      <c r="A598" s="23"/>
       <c r="B598" s="4"/>
     </row>
     <row r="599" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A599" s="24"/>
+      <c r="A599" s="23"/>
       <c r="B599" s="4"/>
     </row>
     <row r="600" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A600" s="24"/>
+      <c r="A600" s="23"/>
       <c r="B600" s="4"/>
     </row>
     <row r="601" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A601" s="24"/>
+      <c r="A601" s="23"/>
       <c r="B601" s="4"/>
     </row>
     <row r="602" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A602" s="24"/>
+      <c r="A602" s="23"/>
       <c r="B602" s="4"/>
     </row>
     <row r="603" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A603" s="24"/>
+      <c r="A603" s="23"/>
       <c r="B603" s="4"/>
     </row>
     <row r="604" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A604" s="24"/>
+      <c r="A604" s="23"/>
       <c r="B604" s="4"/>
     </row>
     <row r="605" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A605" s="24"/>
+      <c r="A605" s="23"/>
       <c r="B605" s="4"/>
     </row>
     <row r="606" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A606" s="24"/>
+      <c r="A606" s="23"/>
       <c r="B606" s="4"/>
     </row>
     <row r="607" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A607" s="24"/>
+      <c r="A607" s="23"/>
       <c r="B607" s="4"/>
     </row>
     <row r="608" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A608" s="24"/>
+      <c r="A608" s="23"/>
       <c r="B608" s="4"/>
     </row>
     <row r="609" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A609" s="24"/>
+      <c r="A609" s="23"/>
       <c r="B609" s="4"/>
     </row>
     <row r="610" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A610" s="24"/>
+      <c r="A610" s="23"/>
       <c r="B610" s="4"/>
     </row>
     <row r="611" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A611" s="24"/>
+      <c r="A611" s="23"/>
       <c r="B611" s="4"/>
     </row>
     <row r="612" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A612" s="24"/>
+      <c r="A612" s="23"/>
       <c r="B612" s="4"/>
     </row>
     <row r="613" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A613" s="24"/>
+      <c r="A613" s="23"/>
       <c r="B613" s="4"/>
     </row>
     <row r="614" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A614" s="24"/>
+      <c r="A614" s="23"/>
       <c r="B614" s="4"/>
     </row>
     <row r="615" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A615" s="24"/>
+      <c r="A615" s="23"/>
       <c r="B615" s="4"/>
     </row>
     <row r="616" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A616" s="24"/>
+      <c r="A616" s="23"/>
       <c r="B616" s="4"/>
     </row>
     <row r="617" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A617" s="24"/>
+      <c r="A617" s="23"/>
       <c r="B617" s="4"/>
     </row>
     <row r="618" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A618" s="24"/>
+      <c r="A618" s="23"/>
       <c r="B618" s="4"/>
     </row>
     <row r="619" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A619" s="24"/>
+      <c r="A619" s="23"/>
       <c r="B619" s="4"/>
     </row>
     <row r="620" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A620" s="24"/>
+      <c r="A620" s="23"/>
       <c r="B620" s="4"/>
     </row>
     <row r="621" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A621" s="24"/>
+      <c r="A621" s="23"/>
       <c r="B621" s="4"/>
     </row>
     <row r="622" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A622" s="24"/>
+      <c r="A622" s="23"/>
       <c r="B622" s="4"/>
     </row>
     <row r="623" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A623" s="24"/>
+      <c r="A623" s="23"/>
       <c r="B623" s="4"/>
     </row>
     <row r="624" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A624" s="24"/>
+      <c r="A624" s="23"/>
       <c r="B624" s="4"/>
     </row>
     <row r="625" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A625" s="24"/>
+      <c r="A625" s="23"/>
       <c r="B625" s="4"/>
     </row>
     <row r="626" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A626" s="24"/>
+      <c r="A626" s="23"/>
       <c r="B626" s="4"/>
     </row>
     <row r="627" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A627" s="24"/>
+      <c r="A627" s="23"/>
       <c r="B627" s="4"/>
     </row>
     <row r="628" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A628" s="24"/>
+      <c r="A628" s="23"/>
       <c r="B628" s="4"/>
     </row>
     <row r="629" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A629" s="24"/>
+      <c r="A629" s="23"/>
       <c r="B629" s="4"/>
     </row>
     <row r="630" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A630" s="24"/>
+      <c r="A630" s="23"/>
       <c r="B630" s="4"/>
     </row>
     <row r="631" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A631" s="24"/>
+      <c r="A631" s="23"/>
       <c r="B631" s="4"/>
     </row>
     <row r="632" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A632" s="24"/>
+      <c r="A632" s="23"/>
       <c r="B632" s="4"/>
     </row>
     <row r="633" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A633" s="24"/>
+      <c r="A633" s="23"/>
       <c r="B633" s="4"/>
     </row>
     <row r="634" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A634" s="24"/>
+      <c r="A634" s="23"/>
       <c r="B634" s="4"/>
     </row>
     <row r="635" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A635" s="24"/>
+      <c r="A635" s="23"/>
       <c r="B635" s="4"/>
     </row>
     <row r="636" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A636" s="24"/>
+      <c r="A636" s="23"/>
       <c r="B636" s="4"/>
     </row>
     <row r="637" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A637" s="24"/>
+      <c r="A637" s="23"/>
       <c r="B637" s="4"/>
     </row>
     <row r="638" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A638" s="24"/>
+      <c r="A638" s="23"/>
       <c r="B638" s="4"/>
     </row>
     <row r="639" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A639" s="24"/>
+      <c r="A639" s="23"/>
       <c r="B639" s="4"/>
     </row>
     <row r="640" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A640" s="24"/>
+      <c r="A640" s="23"/>
       <c r="B640" s="4"/>
     </row>
     <row r="641" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A641" s="24"/>
+      <c r="A641" s="23"/>
       <c r="B641" s="4"/>
     </row>
     <row r="642" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A642" s="24"/>
+      <c r="A642" s="23"/>
       <c r="B642" s="4"/>
     </row>
     <row r="643" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A643" s="24"/>
+      <c r="A643" s="23"/>
       <c r="B643" s="4"/>
     </row>
     <row r="644" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A644" s="24"/>
+      <c r="A644" s="23"/>
       <c r="B644" s="4"/>
     </row>
     <row r="645" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A645" s="24"/>
+      <c r="A645" s="23"/>
       <c r="B645" s="4"/>
     </row>
     <row r="646" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A646" s="24"/>
+      <c r="A646" s="23"/>
       <c r="B646" s="4"/>
     </row>
     <row r="647" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A647" s="24"/>
+      <c r="A647" s="23"/>
       <c r="B647" s="4"/>
     </row>
     <row r="648" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A648" s="24"/>
+      <c r="A648" s="23"/>
       <c r="B648" s="4"/>
     </row>
     <row r="649" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A649" s="24"/>
+      <c r="A649" s="23"/>
       <c r="B649" s="4"/>
     </row>
     <row r="650" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A650" s="24"/>
+      <c r="A650" s="23"/>
       <c r="B650" s="4"/>
     </row>
     <row r="651" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A651" s="24"/>
+      <c r="A651" s="23"/>
       <c r="B651" s="4"/>
     </row>
     <row r="652" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A652" s="24"/>
+      <c r="A652" s="23"/>
       <c r="B652" s="4"/>
     </row>
     <row r="653" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A653" s="24"/>
+      <c r="A653" s="23"/>
       <c r="B653" s="4"/>
     </row>
     <row r="654" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A654" s="24"/>
+      <c r="A654" s="23"/>
       <c r="B654" s="4"/>
     </row>
     <row r="655" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A655" s="24"/>
+      <c r="A655" s="23"/>
       <c r="B655" s="4"/>
     </row>
     <row r="656" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A656" s="24"/>
+      <c r="A656" s="23"/>
       <c r="B656" s="4"/>
     </row>
     <row r="657" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A657" s="24"/>
+      <c r="A657" s="23"/>
       <c r="B657" s="4"/>
     </row>
     <row r="658" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A658" s="24"/>
+      <c r="A658" s="23"/>
       <c r="B658" s="4"/>
     </row>
     <row r="659" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A659" s="24"/>
+      <c r="A659" s="23"/>
       <c r="B659" s="4"/>
     </row>
     <row r="660" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A660" s="24"/>
+      <c r="A660" s="23"/>
       <c r="B660" s="4"/>
     </row>
     <row r="661" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A661" s="24"/>
+      <c r="A661" s="23"/>
       <c r="B661" s="4"/>
     </row>
     <row r="662" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A662" s="24"/>
+      <c r="A662" s="23"/>
       <c r="B662" s="4"/>
     </row>
     <row r="663" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A663" s="24"/>
+      <c r="A663" s="23"/>
       <c r="B663" s="4"/>
     </row>
     <row r="664" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A664" s="24"/>
+      <c r="A664" s="23"/>
       <c r="B664" s="4"/>
     </row>
     <row r="665" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A665" s="24"/>
+      <c r="A665" s="23"/>
       <c r="B665" s="4"/>
     </row>
     <row r="666" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A666" s="24"/>
+      <c r="A666" s="23"/>
       <c r="B666" s="4"/>
     </row>
     <row r="667" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A667" s="24"/>
+      <c r="A667" s="23"/>
       <c r="B667" s="4"/>
     </row>
     <row r="668" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A668" s="24"/>
+      <c r="A668" s="23"/>
       <c r="B668" s="4"/>
     </row>
     <row r="669" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A669" s="24"/>
+      <c r="A669" s="23"/>
       <c r="B669" s="4"/>
     </row>
     <row r="670" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A670" s="24"/>
+      <c r="A670" s="23"/>
       <c r="B670" s="4"/>
     </row>
     <row r="671" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A671" s="24"/>
+      <c r="A671" s="23"/>
       <c r="B671" s="4"/>
     </row>
     <row r="672" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A672" s="24"/>
+      <c r="A672" s="23"/>
       <c r="B672" s="4"/>
     </row>
     <row r="673" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A673" s="24"/>
+      <c r="A673" s="23"/>
       <c r="B673" s="4"/>
     </row>
     <row r="674" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A674" s="24"/>
+      <c r="A674" s="23"/>
       <c r="B674" s="4"/>
     </row>
     <row r="675" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A675" s="24"/>
+      <c r="A675" s="23"/>
       <c r="B675" s="4"/>
     </row>
     <row r="676" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A676" s="24"/>
+      <c r="A676" s="23"/>
       <c r="B676" s="4"/>
     </row>
     <row r="677" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A677" s="24"/>
+      <c r="A677" s="23"/>
       <c r="B677" s="4"/>
     </row>
     <row r="678" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A678" s="24"/>
+      <c r="A678" s="23"/>
       <c r="B678" s="4"/>
     </row>
     <row r="679" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A679" s="24"/>
+      <c r="A679" s="23"/>
       <c r="B679" s="4"/>
     </row>
     <row r="680" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A680" s="24"/>
+      <c r="A680" s="23"/>
       <c r="B680" s="4"/>
     </row>
     <row r="681" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A681" s="24"/>
+      <c r="A681" s="23"/>
       <c r="B681" s="4"/>
     </row>
     <row r="682" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A682" s="24"/>
+      <c r="A682" s="23"/>
       <c r="B682" s="4"/>
     </row>
     <row r="683" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A683" s="24"/>
+      <c r="A683" s="23"/>
       <c r="B683" s="4"/>
     </row>
     <row r="684" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A684" s="24"/>
+      <c r="A684" s="23"/>
       <c r="B684" s="4"/>
     </row>
     <row r="685" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A685" s="24"/>
+      <c r="A685" s="23"/>
       <c r="B685" s="4"/>
     </row>
     <row r="686" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A686" s="24"/>
+      <c r="A686" s="23"/>
       <c r="B686" s="4"/>
     </row>
     <row r="687" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A687" s="24"/>
+      <c r="A687" s="23"/>
       <c r="B687" s="4"/>
     </row>
     <row r="688" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A688" s="24"/>
+      <c r="A688" s="23"/>
       <c r="B688" s="4"/>
     </row>
     <row r="689" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A689" s="24"/>
+      <c r="A689" s="23"/>
       <c r="B689" s="4"/>
     </row>
     <row r="690" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A690" s="24"/>
+      <c r="A690" s="23"/>
       <c r="B690" s="4"/>
     </row>
     <row r="691" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A691" s="24"/>
+      <c r="A691" s="23"/>
       <c r="B691" s="4"/>
     </row>
     <row r="692" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A692" s="24"/>
+      <c r="A692" s="23"/>
       <c r="B692" s="4"/>
     </row>
     <row r="693" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A693" s="24"/>
+      <c r="A693" s="23"/>
       <c r="B693" s="4"/>
     </row>
     <row r="694" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A694" s="24"/>
+      <c r="A694" s="23"/>
       <c r="B694" s="4"/>
     </row>
     <row r="695" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A695" s="24"/>
+      <c r="A695" s="23"/>
       <c r="B695" s="4"/>
     </row>
     <row r="696" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A696" s="24"/>
+      <c r="A696" s="23"/>
       <c r="B696" s="4"/>
     </row>
     <row r="697" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A697" s="24"/>
+      <c r="A697" s="23"/>
       <c r="B697" s="4"/>
     </row>
     <row r="698" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A698" s="24"/>
+      <c r="A698" s="23"/>
       <c r="B698" s="4"/>
     </row>
     <row r="699" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A699" s="24"/>
+      <c r="A699" s="23"/>
       <c r="B699" s="4"/>
     </row>
     <row r="700" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A700" s="24"/>
+      <c r="A700" s="23"/>
       <c r="B700" s="4"/>
     </row>
     <row r="701" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A701" s="24"/>
+      <c r="A701" s="23"/>
       <c r="B701" s="4"/>
     </row>
     <row r="702" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A702" s="24"/>
+      <c r="A702" s="23"/>
       <c r="B702" s="4"/>
     </row>
     <row r="703" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A703" s="24"/>
+      <c r="A703" s="23"/>
       <c r="B703" s="4"/>
     </row>
     <row r="704" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A704" s="24"/>
+      <c r="A704" s="23"/>
       <c r="B704" s="4"/>
     </row>
     <row r="705" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A705" s="24"/>
+      <c r="A705" s="23"/>
       <c r="B705" s="4"/>
     </row>
     <row r="706" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A706" s="24"/>
+      <c r="A706" s="23"/>
       <c r="B706" s="4"/>
     </row>
     <row r="707" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A707" s="24"/>
+      <c r="A707" s="23"/>
       <c r="B707" s="4"/>
     </row>
     <row r="708" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A708" s="24"/>
+      <c r="A708" s="23"/>
       <c r="B708" s="4"/>
     </row>
     <row r="709" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A709" s="24"/>
+      <c r="A709" s="23"/>
       <c r="B709" s="4"/>
     </row>
     <row r="710" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A710" s="24"/>
+      <c r="A710" s="23"/>
       <c r="B710" s="4"/>
     </row>
     <row r="711" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A711" s="24"/>
+      <c r="A711" s="23"/>
       <c r="B711" s="4"/>
     </row>
     <row r="712" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A712" s="24"/>
+      <c r="A712" s="23"/>
       <c r="B712" s="4"/>
     </row>
     <row r="713" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A713" s="24"/>
+      <c r="A713" s="23"/>
       <c r="B713" s="4"/>
     </row>
     <row r="714" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A714" s="24"/>
+      <c r="A714" s="23"/>
       <c r="B714" s="4"/>
     </row>
     <row r="715" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A715" s="24"/>
+      <c r="A715" s="23"/>
       <c r="B715" s="4"/>
     </row>
     <row r="716" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A716" s="24"/>
+      <c r="A716" s="23"/>
       <c r="B716" s="4"/>
     </row>
     <row r="717" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A717" s="24"/>
+      <c r="A717" s="23"/>
       <c r="B717" s="4"/>
     </row>
     <row r="718" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A718" s="24"/>
+      <c r="A718" s="23"/>
       <c r="B718" s="4"/>
     </row>
     <row r="719" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A719" s="24"/>
+      <c r="A719" s="23"/>
       <c r="B719" s="4"/>
     </row>
     <row r="720" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A720" s="24"/>
+      <c r="A720" s="23"/>
       <c r="B720" s="4"/>
     </row>
     <row r="721" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A721" s="24"/>
+      <c r="A721" s="23"/>
       <c r="B721" s="4"/>
     </row>
     <row r="722" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A722" s="24"/>
+      <c r="A722" s="23"/>
       <c r="B722" s="4"/>
     </row>
     <row r="723" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A723" s="24"/>
+      <c r="A723" s="23"/>
       <c r="B723" s="4"/>
     </row>
     <row r="724" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A724" s="24"/>
+      <c r="A724" s="23"/>
       <c r="B724" s="4"/>
     </row>
     <row r="725" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A725" s="24"/>
+      <c r="A725" s="23"/>
       <c r="B725" s="4"/>
     </row>
     <row r="726" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A726" s="24"/>
+      <c r="A726" s="23"/>
       <c r="B726" s="4"/>
     </row>
     <row r="727" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A727" s="24"/>
+      <c r="A727" s="23"/>
       <c r="B727" s="4"/>
     </row>
     <row r="728" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A728" s="24"/>
+      <c r="A728" s="23"/>
       <c r="B728" s="4"/>
     </row>
     <row r="729" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A729" s="24"/>
+      <c r="A729" s="23"/>
       <c r="B729" s="4"/>
     </row>
     <row r="730" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A730" s="24"/>
+      <c r="A730" s="23"/>
       <c r="B730" s="4"/>
     </row>
     <row r="731" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A731" s="24"/>
+      <c r="A731" s="23"/>
       <c r="B731" s="4"/>
     </row>
     <row r="732" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A732" s="24"/>
+      <c r="A732" s="23"/>
       <c r="B732" s="4"/>
     </row>
     <row r="733" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A733" s="24"/>
+      <c r="A733" s="23"/>
       <c r="B733" s="4"/>
     </row>
     <row r="734" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A734" s="24"/>
+      <c r="A734" s="23"/>
       <c r="B734" s="4"/>
     </row>
     <row r="735" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A735" s="24"/>
+      <c r="A735" s="23"/>
       <c r="B735" s="4"/>
     </row>
     <row r="736" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A736" s="24"/>
+      <c r="A736" s="23"/>
       <c r="B736" s="4"/>
     </row>
     <row r="737" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A737" s="24"/>
+      <c r="A737" s="23"/>
       <c r="B737" s="4"/>
     </row>
     <row r="738" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A738" s="24"/>
+      <c r="A738" s="23"/>
       <c r="B738" s="4"/>
     </row>
     <row r="739" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A739" s="24"/>
+      <c r="A739" s="23"/>
       <c r="B739" s="4"/>
     </row>
     <row r="740" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A740" s="24"/>
+      <c r="A740" s="23"/>
       <c r="B740" s="4"/>
     </row>
     <row r="741" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A741" s="24"/>
+      <c r="A741" s="23"/>
       <c r="B741" s="4"/>
     </row>
     <row r="742" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A742" s="24"/>
+      <c r="A742" s="23"/>
       <c r="B742" s="4"/>
     </row>
     <row r="743" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A743" s="24"/>
+      <c r="A743" s="23"/>
       <c r="B743" s="4"/>
     </row>
     <row r="744" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A744" s="24"/>
+      <c r="A744" s="23"/>
       <c r="B744" s="4"/>
     </row>
     <row r="745" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A745" s="24"/>
+      <c r="A745" s="23"/>
       <c r="B745" s="4"/>
     </row>
     <row r="746" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A746" s="24"/>
+      <c r="A746" s="23"/>
       <c r="B746" s="4"/>
     </row>
     <row r="747" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A747" s="24"/>
+      <c r="A747" s="23"/>
       <c r="B747" s="4"/>
     </row>
     <row r="748" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A748" s="24"/>
+      <c r="A748" s="23"/>
       <c r="B748" s="4"/>
     </row>
     <row r="749" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A749" s="24"/>
+      <c r="A749" s="23"/>
       <c r="B749" s="4"/>
     </row>
     <row r="750" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A750" s="24"/>
+      <c r="A750" s="23"/>
       <c r="B750" s="4"/>
     </row>
     <row r="751" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A751" s="24"/>
+      <c r="A751" s="23"/>
       <c r="B751" s="4"/>
     </row>
     <row r="752" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A752" s="24"/>
+      <c r="A752" s="23"/>
       <c r="B752" s="4"/>
     </row>
     <row r="753" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A753" s="24"/>
+      <c r="A753" s="23"/>
       <c r="B753" s="4"/>
     </row>
     <row r="754" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A754" s="24"/>
+      <c r="A754" s="23"/>
       <c r="B754" s="4"/>
     </row>
     <row r="755" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A755" s="24"/>
+      <c r="A755" s="23"/>
       <c r="B755" s="4"/>
     </row>
     <row r="756" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A756" s="24"/>
+      <c r="A756" s="23"/>
       <c r="B756" s="4"/>
     </row>
     <row r="757" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A757" s="24"/>
+      <c r="A757" s="23"/>
       <c r="B757" s="4"/>
     </row>
     <row r="758" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A758" s="24"/>
+      <c r="A758" s="23"/>
       <c r="B758" s="4"/>
     </row>
     <row r="759" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A759" s="24"/>
+      <c r="A759" s="23"/>
       <c r="B759" s="4"/>
     </row>
     <row r="760" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A760" s="24"/>
+      <c r="A760" s="23"/>
       <c r="B760" s="4"/>
     </row>
     <row r="761" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A761" s="24"/>
+      <c r="A761" s="23"/>
       <c r="B761" s="4"/>
     </row>
     <row r="762" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A762" s="24"/>
+      <c r="A762" s="23"/>
       <c r="B762" s="4"/>
     </row>
     <row r="763" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A763" s="24"/>
+      <c r="A763" s="23"/>
       <c r="B763" s="4"/>
     </row>
     <row r="764" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A764" s="24"/>
+      <c r="A764" s="23"/>
       <c r="B764" s="4"/>
     </row>
     <row r="765" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A765" s="24"/>
+      <c r="A765" s="23"/>
       <c r="B765" s="4"/>
     </row>
     <row r="766" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A766" s="24"/>
+      <c r="A766" s="23"/>
       <c r="B766" s="4"/>
     </row>
     <row r="767" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A767" s="24"/>
+      <c r="A767" s="23"/>
       <c r="B767" s="4"/>
     </row>
     <row r="768" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A768" s="24"/>
+      <c r="A768" s="23"/>
       <c r="B768" s="4"/>
     </row>
     <row r="769" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A769" s="24"/>
+      <c r="A769" s="23"/>
       <c r="B769" s="4"/>
     </row>
     <row r="770" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A770" s="24"/>
+      <c r="A770" s="23"/>
       <c r="B770" s="4"/>
     </row>
     <row r="771" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A771" s="24"/>
+      <c r="A771" s="23"/>
       <c r="B771" s="4"/>
     </row>
     <row r="772" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A772" s="24"/>
+      <c r="A772" s="23"/>
       <c r="B772" s="4"/>
     </row>
     <row r="773" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A773" s="24"/>
+      <c r="A773" s="23"/>
       <c r="B773" s="4"/>
     </row>
     <row r="774" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A774" s="24"/>
+      <c r="A774" s="23"/>
       <c r="B774" s="4"/>
     </row>
     <row r="775" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A775" s="24"/>
+      <c r="A775" s="23"/>
       <c r="B775" s="4"/>
     </row>
     <row r="776" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A776" s="24"/>
+      <c r="A776" s="23"/>
       <c r="B776" s="4"/>
     </row>
     <row r="777" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A777" s="24"/>
+      <c r="A777" s="23"/>
       <c r="B777" s="4"/>
     </row>
     <row r="778" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A778" s="24"/>
+      <c r="A778" s="23"/>
       <c r="B778" s="4"/>
     </row>
     <row r="779" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A779" s="24"/>
+      <c r="A779" s="23"/>
       <c r="B779" s="4"/>
     </row>
     <row r="780" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A780" s="24"/>
+      <c r="A780" s="23"/>
       <c r="B780" s="4"/>
     </row>
     <row r="781" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A781" s="24"/>
+      <c r="A781" s="23"/>
       <c r="B781" s="4"/>
     </row>
     <row r="782" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A782" s="24"/>
+      <c r="A782" s="23"/>
       <c r="B782" s="4"/>
     </row>
     <row r="783" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A783" s="24"/>
+      <c r="A783" s="23"/>
       <c r="B783" s="4"/>
     </row>
     <row r="784" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A784" s="24"/>
+      <c r="A784" s="23"/>
       <c r="B784" s="4"/>
     </row>
     <row r="785" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A785" s="24"/>
+      <c r="A785" s="23"/>
       <c r="B785" s="4"/>
     </row>
     <row r="786" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A786" s="24"/>
+      <c r="A786" s="23"/>
       <c r="B786" s="4"/>
     </row>
     <row r="787" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A787" s="24"/>
+      <c r="A787" s="23"/>
       <c r="B787" s="4"/>
     </row>
     <row r="788" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A788" s="24"/>
+      <c r="A788" s="23"/>
       <c r="B788" s="4"/>
     </row>
     <row r="789" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A789" s="24"/>
+      <c r="A789" s="23"/>
       <c r="B789" s="4"/>
     </row>
     <row r="790" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A790" s="24"/>
+      <c r="A790" s="23"/>
       <c r="B790" s="4"/>
     </row>
     <row r="791" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A791" s="24"/>
+      <c r="A791" s="23"/>
       <c r="B791" s="4"/>
     </row>
     <row r="792" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A792" s="24"/>
+      <c r="A792" s="23"/>
       <c r="B792" s="4"/>
     </row>
     <row r="793" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A793" s="24"/>
+      <c r="A793" s="23"/>
       <c r="B793" s="4"/>
     </row>
     <row r="794" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A794" s="24"/>
+      <c r="A794" s="23"/>
       <c r="B794" s="4"/>
     </row>
     <row r="795" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A795" s="24"/>
+      <c r="A795" s="23"/>
       <c r="B795" s="4"/>
     </row>
     <row r="796" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A796" s="24"/>
+      <c r="A796" s="23"/>
       <c r="B796" s="4"/>
     </row>
     <row r="797" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A797" s="24"/>
+      <c r="A797" s="23"/>
       <c r="B797" s="4"/>
     </row>
     <row r="798" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A798" s="24"/>
+      <c r="A798" s="23"/>
       <c r="B798" s="4"/>
     </row>
     <row r="799" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A799" s="24"/>
+      <c r="A799" s="23"/>
       <c r="B799" s="4"/>
     </row>
     <row r="800" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A800" s="24"/>
+      <c r="A800" s="23"/>
       <c r="B800" s="4"/>
     </row>
     <row r="801" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A801" s="24"/>
+      <c r="A801" s="23"/>
       <c r="B801" s="4"/>
     </row>
     <row r="802" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A802" s="24"/>
+      <c r="A802" s="23"/>
       <c r="B802" s="4"/>
     </row>
     <row r="803" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A803" s="24"/>
+      <c r="A803" s="23"/>
       <c r="B803" s="4"/>
     </row>
     <row r="804" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A804" s="24"/>
+      <c r="A804" s="23"/>
       <c r="B804" s="4"/>
     </row>
     <row r="805" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A805" s="24"/>
+      <c r="A805" s="23"/>
       <c r="B805" s="4"/>
     </row>
     <row r="806" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A806" s="24"/>
+      <c r="A806" s="23"/>
       <c r="B806" s="4"/>
     </row>
     <row r="807" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A807" s="24"/>
+      <c r="A807" s="23"/>
       <c r="B807" s="4"/>
     </row>
     <row r="808" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A808" s="24"/>
+      <c r="A808" s="23"/>
       <c r="B808" s="4"/>
     </row>
     <row r="809" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A809" s="24"/>
+      <c r="A809" s="23"/>
       <c r="B809" s="4"/>
     </row>
     <row r="810" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A810" s="24"/>
+      <c r="A810" s="23"/>
       <c r="B810" s="4"/>
     </row>
     <row r="811" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A811" s="24"/>
+      <c r="A811" s="23"/>
       <c r="B811" s="4"/>
     </row>
     <row r="812" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A812" s="24"/>
+      <c r="A812" s="23"/>
       <c r="B812" s="4"/>
     </row>
     <row r="813" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A813" s="24"/>
+      <c r="A813" s="23"/>
       <c r="B813" s="4"/>
     </row>
     <row r="814" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A814" s="24"/>
+      <c r="A814" s="23"/>
       <c r="B814" s="4"/>
     </row>
     <row r="815" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A815" s="24"/>
+      <c r="A815" s="23"/>
       <c r="B815" s="4"/>
     </row>
     <row r="816" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A816" s="24"/>
+      <c r="A816" s="23"/>
       <c r="B816" s="4"/>
     </row>
     <row r="817" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A817" s="24"/>
+      <c r="A817" s="23"/>
       <c r="B817" s="4"/>
     </row>
     <row r="818" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A818" s="24"/>
+      <c r="A818" s="23"/>
       <c r="B818" s="4"/>
     </row>
     <row r="819" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A819" s="24"/>
+      <c r="A819" s="23"/>
       <c r="B819" s="4"/>
     </row>
     <row r="820" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A820" s="24"/>
+      <c r="A820" s="23"/>
       <c r="B820" s="4"/>
     </row>
     <row r="821" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A821" s="24"/>
+      <c r="A821" s="23"/>
       <c r="B821" s="4"/>
     </row>
     <row r="822" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A822" s="24"/>
+      <c r="A822" s="23"/>
       <c r="B822" s="4"/>
     </row>
     <row r="823" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A823" s="24"/>
+      <c r="A823" s="23"/>
       <c r="B823" s="4"/>
     </row>
     <row r="824" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A824" s="24"/>
+      <c r="A824" s="23"/>
       <c r="B824" s="4"/>
     </row>
     <row r="825" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A825" s="24"/>
+      <c r="A825" s="23"/>
       <c r="B825" s="4"/>
     </row>
     <row r="826" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A826" s="24"/>
+      <c r="A826" s="23"/>
       <c r="B826" s="4"/>
     </row>
     <row r="827" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A827" s="24"/>
+      <c r="A827" s="23"/>
       <c r="B827" s="4"/>
     </row>
     <row r="828" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A828" s="24"/>
+      <c r="A828" s="23"/>
       <c r="B828" s="4"/>
     </row>
     <row r="829" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A829" s="24"/>
+      <c r="A829" s="23"/>
       <c r="B829" s="4"/>
     </row>
     <row r="830" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A830" s="24"/>
+      <c r="A830" s="23"/>
       <c r="B830" s="4"/>
     </row>
     <row r="831" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A831" s="24"/>
+      <c r="A831" s="23"/>
       <c r="B831" s="4"/>
     </row>
     <row r="832" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A832" s="24"/>
+      <c r="A832" s="23"/>
       <c r="B832" s="4"/>
     </row>
     <row r="833" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A833" s="24"/>
+      <c r="A833" s="23"/>
       <c r="B833" s="4"/>
     </row>
     <row r="834" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A834" s="24"/>
+      <c r="A834" s="23"/>
       <c r="B834" s="4"/>
     </row>
     <row r="835" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A835" s="24"/>
+      <c r="A835" s="23"/>
       <c r="B835" s="4"/>
     </row>
     <row r="836" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A836" s="24"/>
+      <c r="A836" s="23"/>
       <c r="B836" s="4"/>
     </row>
     <row r="837" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A837" s="24"/>
+      <c r="A837" s="23"/>
       <c r="B837" s="4"/>
     </row>
     <row r="838" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A838" s="24"/>
+      <c r="A838" s="23"/>
       <c r="B838" s="4"/>
     </row>
     <row r="839" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A839" s="24"/>
+      <c r="A839" s="23"/>
       <c r="B839" s="4"/>
     </row>
     <row r="840" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A840" s="24"/>
+      <c r="A840" s="23"/>
       <c r="B840" s="4"/>
     </row>
     <row r="841" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A841" s="24"/>
+      <c r="A841" s="23"/>
       <c r="B841" s="4"/>
     </row>
     <row r="842" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A842" s="24"/>
+      <c r="A842" s="23"/>
       <c r="B842" s="4"/>
     </row>
     <row r="843" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A843" s="24"/>
+      <c r="A843" s="23"/>
       <c r="B843" s="4"/>
     </row>
     <row r="844" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A844" s="24"/>
+      <c r="A844" s="23"/>
       <c r="B844" s="4"/>
     </row>
     <row r="845" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A845" s="24"/>
+      <c r="A845" s="23"/>
       <c r="B845" s="4"/>
     </row>
     <row r="846" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A846" s="24"/>
+      <c r="A846" s="23"/>
       <c r="B846" s="4"/>
     </row>
     <row r="847" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A847" s="24"/>
+      <c r="A847" s="23"/>
       <c r="B847" s="4"/>
     </row>
     <row r="848" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A848" s="24"/>
+      <c r="A848" s="23"/>
       <c r="B848" s="4"/>
     </row>
     <row r="849" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A849" s="24"/>
+      <c r="A849" s="23"/>
       <c r="B849" s="4"/>
     </row>
     <row r="850" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A850" s="24"/>
+      <c r="A850" s="23"/>
       <c r="B850" s="4"/>
     </row>
     <row r="851" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A851" s="24"/>
+      <c r="A851" s="23"/>
       <c r="B851" s="4"/>
     </row>
     <row r="852" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A852" s="24"/>
+      <c r="A852" s="23"/>
       <c r="B852" s="4"/>
     </row>
     <row r="853" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A853" s="24"/>
+      <c r="A853" s="23"/>
       <c r="B853" s="4"/>
     </row>
     <row r="854" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A854" s="24"/>
+      <c r="A854" s="23"/>
       <c r="B854" s="4"/>
     </row>
     <row r="855" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A855" s="24"/>
+      <c r="A855" s="23"/>
       <c r="B855" s="4"/>
     </row>
     <row r="856" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A856" s="24"/>
+      <c r="A856" s="23"/>
       <c r="B856" s="4"/>
     </row>
     <row r="857" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A857" s="24"/>
+      <c r="A857" s="23"/>
       <c r="B857" s="4"/>
     </row>
     <row r="858" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A858" s="24"/>
+      <c r="A858" s="23"/>
       <c r="B858" s="4"/>
     </row>
     <row r="859" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A859" s="24"/>
+      <c r="A859" s="23"/>
       <c r="B859" s="4"/>
     </row>
     <row r="860" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A860" s="24"/>
+      <c r="A860" s="23"/>
       <c r="B860" s="4"/>
     </row>
     <row r="861" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A861" s="24"/>
+      <c r="A861" s="23"/>
       <c r="B861" s="4"/>
     </row>
     <row r="862" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A862" s="24"/>
+      <c r="A862" s="23"/>
       <c r="B862" s="4"/>
     </row>
     <row r="863" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A863" s="24"/>
+      <c r="A863" s="23"/>
       <c r="B863" s="4"/>
     </row>
     <row r="864" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A864" s="24"/>
+      <c r="A864" s="23"/>
       <c r="B864" s="4"/>
     </row>
     <row r="865" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A865" s="24"/>
+      <c r="A865" s="23"/>
       <c r="B865" s="4"/>
     </row>
     <row r="866" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A866" s="24"/>
+      <c r="A866" s="23"/>
       <c r="B866" s="4"/>
     </row>
     <row r="867" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A867" s="24"/>
+      <c r="A867" s="23"/>
       <c r="B867" s="4"/>
     </row>
     <row r="868" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A868" s="24"/>
+      <c r="A868" s="23"/>
       <c r="B868" s="4"/>
     </row>
     <row r="869" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A869" s="24"/>
+      <c r="A869" s="23"/>
       <c r="B869" s="4"/>
     </row>
     <row r="870" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A870" s="24"/>
+      <c r="A870" s="23"/>
       <c r="B870" s="4"/>
     </row>
     <row r="871" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A871" s="24"/>
+      <c r="A871" s="23"/>
       <c r="B871" s="4"/>
     </row>
     <row r="872" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A872" s="24"/>
+      <c r="A872" s="23"/>
       <c r="B872" s="4"/>
     </row>
     <row r="873" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A873" s="24"/>
+      <c r="A873" s="23"/>
       <c r="B873" s="4"/>
     </row>
     <row r="874" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A874" s="24"/>
+      <c r="A874" s="23"/>
       <c r="B874" s="4"/>
     </row>
     <row r="875" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A875" s="24"/>
+      <c r="A875" s="23"/>
       <c r="B875" s="4"/>
     </row>
     <row r="876" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A876" s="24"/>
+      <c r="A876" s="23"/>
       <c r="B876" s="4"/>
     </row>
     <row r="877" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A877" s="24"/>
+      <c r="A877" s="23"/>
       <c r="B877" s="4"/>
     </row>
     <row r="878" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A878" s="24"/>
+      <c r="A878" s="23"/>
       <c r="B878" s="4"/>
     </row>
     <row r="879" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A879" s="24"/>
+      <c r="A879" s="23"/>
       <c r="B879" s="4"/>
     </row>
     <row r="880" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A880" s="24"/>
+      <c r="A880" s="23"/>
       <c r="B880" s="4"/>
     </row>
     <row r="881" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A881" s="24"/>
+      <c r="A881" s="23"/>
       <c r="B881" s="4"/>
     </row>
     <row r="882" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A882" s="24"/>
+      <c r="A882" s="23"/>
       <c r="B882" s="4"/>
     </row>
     <row r="883" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A883" s="24"/>
+      <c r="A883" s="23"/>
       <c r="B883" s="4"/>
     </row>
     <row r="884" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A884" s="24"/>
+      <c r="A884" s="23"/>
       <c r="B884" s="4"/>
     </row>
     <row r="885" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A885" s="24"/>
+      <c r="A885" s="23"/>
       <c r="B885" s="4"/>
     </row>
     <row r="886" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A886" s="24"/>
+      <c r="A886" s="23"/>
       <c r="B886" s="4"/>
     </row>
     <row r="887" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A887" s="24"/>
+      <c r="A887" s="23"/>
       <c r="B887" s="4"/>
     </row>
     <row r="888" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A888" s="24"/>
+      <c r="A888" s="23"/>
       <c r="B888" s="4"/>
     </row>
     <row r="889" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A889" s="24"/>
+      <c r="A889" s="23"/>
       <c r="B889" s="4"/>
     </row>
     <row r="890" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A890" s="24"/>
+      <c r="A890" s="23"/>
       <c r="B890" s="4"/>
     </row>
     <row r="891" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A891" s="24"/>
+      <c r="A891" s="23"/>
       <c r="B891" s="4"/>
     </row>
     <row r="892" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A892" s="24"/>
+      <c r="A892" s="23"/>
       <c r="B892" s="4"/>
     </row>
     <row r="893" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A893" s="24"/>
+      <c r="A893" s="23"/>
       <c r="B893" s="4"/>
     </row>
     <row r="894" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A894" s="24"/>
+      <c r="A894" s="23"/>
       <c r="B894" s="4"/>
     </row>
     <row r="895" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A895" s="24"/>
+      <c r="A895" s="23"/>
       <c r="B895" s="4"/>
     </row>
     <row r="896" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A896" s="24"/>
+      <c r="A896" s="23"/>
       <c r="B896" s="4"/>
     </row>
     <row r="897" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A897" s="24"/>
+      <c r="A897" s="23"/>
       <c r="B897" s="4"/>
     </row>
     <row r="898" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A898" s="24"/>
+      <c r="A898" s="23"/>
       <c r="B898" s="4"/>
     </row>
     <row r="899" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A899" s="24"/>
+      <c r="A899" s="23"/>
       <c r="B899" s="4"/>
     </row>
     <row r="900" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A900" s="24"/>
+      <c r="A900" s="23"/>
       <c r="B900" s="4"/>
     </row>
     <row r="901" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A901" s="24"/>
+      <c r="A901" s="23"/>
       <c r="B901" s="4"/>
     </row>
     <row r="902" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A902" s="24"/>
+      <c r="A902" s="23"/>
       <c r="B902" s="4"/>
     </row>
     <row r="903" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A903" s="24"/>
+      <c r="A903" s="23"/>
       <c r="B903" s="4"/>
     </row>
     <row r="904" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A904" s="24"/>
+      <c r="A904" s="23"/>
       <c r="B904" s="4"/>
     </row>
     <row r="905" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A905" s="24"/>
+      <c r="A905" s="23"/>
       <c r="B905" s="4"/>
     </row>
     <row r="906" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A906" s="24"/>
+      <c r="A906" s="23"/>
       <c r="B906" s="4"/>
     </row>
     <row r="907" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A907" s="24"/>
+      <c r="A907" s="23"/>
       <c r="B907" s="4"/>
     </row>
     <row r="908" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A908" s="24"/>
+      <c r="A908" s="23"/>
       <c r="B908" s="4"/>
     </row>
     <row r="909" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A909" s="24"/>
+      <c r="A909" s="23"/>
       <c r="B909" s="4"/>
     </row>
     <row r="910" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A910" s="24"/>
+      <c r="A910" s="23"/>
       <c r="B910" s="4"/>
     </row>
     <row r="911" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A911" s="24"/>
+      <c r="A911" s="23"/>
       <c r="B911" s="4"/>
     </row>
     <row r="912" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A912" s="24"/>
+      <c r="A912" s="23"/>
       <c r="B912" s="4"/>
     </row>
     <row r="913" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A913" s="24"/>
+      <c r="A913" s="23"/>
       <c r="B913" s="4"/>
     </row>
     <row r="914" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A914" s="24"/>
+      <c r="A914" s="23"/>
       <c r="B914" s="4"/>
     </row>
     <row r="915" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A915" s="24"/>
+      <c r="A915" s="23"/>
       <c r="B915" s="4"/>
     </row>
     <row r="916" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A916" s="24"/>
+      <c r="A916" s="23"/>
       <c r="B916" s="4"/>
     </row>
     <row r="917" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A917" s="24"/>
+      <c r="A917" s="23"/>
       <c r="B917" s="4"/>
     </row>
     <row r="918" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A918" s="24"/>
+      <c r="A918" s="23"/>
       <c r="B918" s="4"/>
     </row>
     <row r="919" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A919" s="24"/>
+      <c r="A919" s="23"/>
       <c r="B919" s="4"/>
     </row>
     <row r="920" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A920" s="24"/>
+      <c r="A920" s="23"/>
       <c r="B920" s="4"/>
     </row>
     <row r="921" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A921" s="24"/>
+      <c r="A921" s="23"/>
       <c r="B921" s="4"/>
     </row>
     <row r="922" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A922" s="24"/>
+      <c r="A922" s="23"/>
       <c r="B922" s="4"/>
     </row>
     <row r="923" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A923" s="24"/>
+      <c r="A923" s="23"/>
       <c r="B923" s="4"/>
     </row>
     <row r="924" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A924" s="24"/>
+      <c r="A924" s="23"/>
       <c r="B924" s="4"/>
     </row>
     <row r="925" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A925" s="24"/>
+      <c r="A925" s="23"/>
       <c r="B925" s="4"/>
     </row>
     <row r="926" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A926" s="24"/>
+      <c r="A926" s="23"/>
       <c r="B926" s="4"/>
     </row>
     <row r="927" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A927" s="24"/>
+      <c r="A927" s="23"/>
       <c r="B927" s="4"/>
     </row>
     <row r="928" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A928" s="24"/>
+      <c r="A928" s="23"/>
       <c r="B928" s="4"/>
     </row>
     <row r="929" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A929" s="24"/>
+      <c r="A929" s="23"/>
       <c r="B929" s="4"/>
     </row>
     <row r="930" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A930" s="24"/>
+      <c r="A930" s="23"/>
       <c r="B930" s="4"/>
     </row>
     <row r="931" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A931" s="24"/>
+      <c r="A931" s="23"/>
       <c r="B931" s="4"/>
     </row>
     <row r="932" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A932" s="24"/>
+      <c r="A932" s="23"/>
       <c r="B932" s="4"/>
     </row>
     <row r="933" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A933" s="24"/>
+      <c r="A933" s="23"/>
       <c r="B933" s="4"/>
     </row>
     <row r="934" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A934" s="24"/>
+      <c r="A934" s="23"/>
       <c r="B934" s="4"/>
     </row>
     <row r="935" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A935" s="24"/>
+      <c r="A935" s="23"/>
       <c r="B935" s="4"/>
     </row>
     <row r="936" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A936" s="24"/>
+      <c r="A936" s="23"/>
       <c r="B936" s="4"/>
     </row>
     <row r="937" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A937" s="24"/>
+      <c r="A937" s="23"/>
       <c r="B937" s="4"/>
     </row>
     <row r="938" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A938" s="24"/>
+      <c r="A938" s="23"/>
       <c r="B938" s="4"/>
     </row>
     <row r="939" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A939" s="24"/>
+      <c r="A939" s="23"/>
       <c r="B939" s="4"/>
     </row>
     <row r="940" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A940" s="24"/>
+      <c r="A940" s="23"/>
       <c r="B940" s="4"/>
     </row>
     <row r="941" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A941" s="24"/>
+      <c r="A941" s="23"/>
       <c r="B941" s="4"/>
     </row>
     <row r="942" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A942" s="24"/>
+      <c r="A942" s="23"/>
       <c r="B942" s="4"/>
     </row>
     <row r="943" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A943" s="24"/>
+      <c r="A943" s="23"/>
       <c r="B943" s="4"/>
     </row>
     <row r="944" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A944" s="24"/>
+      <c r="A944" s="23"/>
       <c r="B944" s="4"/>
     </row>
     <row r="945" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A945" s="24"/>
+      <c r="A945" s="23"/>
       <c r="B945" s="4"/>
     </row>
     <row r="946" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A946" s="24"/>
+      <c r="A946" s="23"/>
       <c r="B946" s="4"/>
     </row>
     <row r="947" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A947" s="24"/>
+      <c r="A947" s="23"/>
       <c r="B947" s="4"/>
     </row>
     <row r="948" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A948" s="24"/>
+      <c r="A948" s="23"/>
       <c r="B948" s="4"/>
     </row>
     <row r="949" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A949" s="24"/>
+      <c r="A949" s="23"/>
       <c r="B949" s="4"/>
     </row>
     <row r="950" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A950" s="24"/>
+      <c r="A950" s="23"/>
       <c r="B950" s="4"/>
     </row>
     <row r="951" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A951" s="24"/>
+      <c r="A951" s="23"/>
       <c r="B951" s="4"/>
     </row>
     <row r="952" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A952" s="24"/>
+      <c r="A952" s="23"/>
       <c r="B952" s="4"/>
     </row>
     <row r="953" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A953" s="24"/>
+      <c r="A953" s="23"/>
       <c r="B953" s="4"/>
     </row>
     <row r="954" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A954" s="24"/>
+      <c r="A954" s="23"/>
       <c r="B954" s="4"/>
     </row>
     <row r="955" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A955" s="24"/>
+      <c r="A955" s="23"/>
       <c r="B955" s="4"/>
     </row>
     <row r="956" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A956" s="24"/>
+      <c r="A956" s="23"/>
       <c r="B956" s="4"/>
     </row>
     <row r="957" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A957" s="24"/>
+      <c r="A957" s="23"/>
       <c r="B957" s="4"/>
     </row>
     <row r="958" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A958" s="24"/>
+      <c r="A958" s="23"/>
       <c r="B958" s="4"/>
     </row>
     <row r="959" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A959" s="24"/>
+      <c r="A959" s="23"/>
       <c r="B959" s="4"/>
     </row>
     <row r="960" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A960" s="24"/>
+      <c r="A960" s="23"/>
       <c r="B960" s="4"/>
     </row>
     <row r="961" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A961" s="24"/>
+      <c r="A961" s="23"/>
       <c r="B961" s="4"/>
     </row>
     <row r="962" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A962" s="24"/>
+      <c r="A962" s="23"/>
       <c r="B962" s="4"/>
     </row>
     <row r="963" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A963" s="24"/>
+      <c r="A963" s="23"/>
       <c r="B963" s="4"/>
     </row>
     <row r="964" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A964" s="24"/>
+      <c r="A964" s="23"/>
       <c r="B964" s="4"/>
     </row>
     <row r="965" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A965" s="24"/>
+      <c r="A965" s="23"/>
       <c r="B965" s="4"/>
     </row>
     <row r="966" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A966" s="24"/>
+      <c r="A966" s="23"/>
       <c r="B966" s="4"/>
     </row>
     <row r="967" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A967" s="24"/>
+      <c r="A967" s="23"/>
       <c r="B967" s="4"/>
     </row>
     <row r="968" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A968" s="24"/>
+      <c r="A968" s="23"/>
       <c r="B968" s="4"/>
     </row>
     <row r="969" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A969" s="24"/>
+      <c r="A969" s="23"/>
       <c r="B969" s="4"/>
     </row>
     <row r="970" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A970" s="24"/>
+      <c r="A970" s="23"/>
       <c r="B970" s="4"/>
     </row>
     <row r="971" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A971" s="24"/>
+      <c r="A971" s="23"/>
       <c r="B971" s="4"/>
     </row>
     <row r="972" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A972" s="24"/>
+      <c r="A972" s="23"/>
       <c r="B972" s="4"/>
     </row>
     <row r="973" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A973" s="24"/>
+      <c r="A973" s="23"/>
       <c r="B973" s="4"/>
     </row>
     <row r="974" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A974" s="24"/>
+      <c r="A974" s="23"/>
       <c r="B974" s="4"/>
     </row>
     <row r="975" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A975" s="24"/>
+      <c r="A975" s="23"/>
       <c r="B975" s="4"/>
     </row>
     <row r="976" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A976" s="24"/>
+      <c r="A976" s="23"/>
       <c r="B976" s="4"/>
     </row>
     <row r="977" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A977" s="24"/>
+      <c r="A977" s="23"/>
       <c r="B977" s="4"/>
     </row>
     <row r="978" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A978" s="24"/>
+      <c r="A978" s="23"/>
       <c r="B978" s="4"/>
     </row>
     <row r="979" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A979" s="24"/>
+      <c r="A979" s="23"/>
       <c r="B979" s="4"/>
     </row>
     <row r="980" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A980" s="24"/>
+      <c r="A980" s="23"/>
       <c r="B980" s="4"/>
     </row>
     <row r="981" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A981" s="24"/>
+      <c r="A981" s="23"/>
       <c r="B981" s="4"/>
     </row>
     <row r="982" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A982" s="24"/>
+      <c r="A982" s="23"/>
       <c r="B982" s="4"/>
     </row>
     <row r="983" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A983" s="24"/>
+      <c r="A983" s="23"/>
       <c r="B983" s="4"/>
     </row>
     <row r="984" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A984" s="24"/>
+      <c r="A984" s="23"/>
       <c r="B984" s="4"/>
     </row>
     <row r="985" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A985" s="24"/>
+      <c r="A985" s="23"/>
       <c r="B985" s="4"/>
     </row>
     <row r="986" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A986" s="24"/>
+      <c r="A986" s="23"/>
       <c r="B986" s="4"/>
     </row>
     <row r="987" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A987" s="24"/>
+      <c r="A987" s="23"/>
       <c r="B987" s="4"/>
     </row>
     <row r="988" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A988" s="24"/>
+      <c r="A988" s="23"/>
       <c r="B988" s="4"/>
     </row>
     <row r="989" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A989" s="24"/>
+      <c r="A989" s="23"/>
       <c r="B989" s="4"/>
     </row>
     <row r="990" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A990" s="24"/>
+      <c r="A990" s="23"/>
       <c r="B990" s="4"/>
     </row>
     <row r="991" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A991" s="24"/>
+      <c r="A991" s="23"/>
       <c r="B991" s="4"/>
     </row>
     <row r="992" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A992" s="24"/>
+      <c r="A992" s="23"/>
       <c r="B992" s="4"/>
     </row>
     <row r="993" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A993" s="24"/>
+      <c r="A993" s="23"/>
       <c r="B993" s="4"/>
     </row>
     <row r="994" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A994" s="24"/>
+      <c r="A994" s="23"/>
       <c r="B994" s="4"/>
     </row>
     <row r="995" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A995" s="24"/>
+      <c r="A995" s="23"/>
       <c r="B995" s="4"/>
     </row>
     <row r="996" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A996" s="24"/>
+      <c r="A996" s="23"/>
       <c r="B996" s="4"/>
     </row>
     <row r="997" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A997" s="24"/>
+      <c r="A997" s="23"/>
       <c r="B997" s="4"/>
     </row>
     <row r="998" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A998" s="24"/>
+      <c r="A998" s="23"/>
       <c r="B998" s="4"/>
     </row>
     <row r="999" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A999" s="24"/>
+      <c r="A999" s="23"/>
       <c r="B999" s="4"/>
     </row>
     <row r="1000" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1000" s="24"/>
+      <c r="A1000" s="23"/>
       <c r="B1000" s="4"/>
     </row>
   </sheetData>

--- a/report/HCI/Self Assessment Form - HCI.xlsx
+++ b/report/HCI/Self Assessment Form - HCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\HCI-TWEB_2025-26\report\HCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1633871C-0E12-453D-86A8-0378E3BBEB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D1AC5-674F-4B03-A12F-D54A7EFA84E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>please do not modify the form; do not introduce new columns; do not introduce new rows; we will process the form automatically!!</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Huge datasets could be a challenge in terms of cleaning (e.g. Dropping duplicates in different buckets, needed not to saturate RAM, is not possible)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://gitlab2.educ.di.unito.it/st182487/HCI-TWEB_2025-26</t>
+  </si>
+  <si>
+    <t>NaN values are skipped automatically from Pandas so we don't need to throw specific exceptions</t>
   </si>
 </sst>
 </file>
@@ -675,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -811,11 +820,15 @@
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
@@ -885,7 +898,7 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
     </row>
-    <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="96" x14ac:dyDescent="0.4">
       <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -900,7 +913,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="14">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -936,7 +952,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -945,7 +961,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -977,7 +993,7 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -987,7 +1003,7 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -997,7 +1013,7 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1007,7 +1023,7 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1287,7 +1303,7 @@
         <v>46</v>
       </c>
       <c r="D62" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1296,7 +1312,7 @@
         <v>47</v>
       </c>
       <c r="D63" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5096,6 +5112,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/HCI/Self Assessment Form - HCI.xlsx
+++ b/report/HCI/Self Assessment Form - HCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\HCI-TWEB_2025-26\report\HCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D1AC5-674F-4B03-A12F-D54A7EFA84E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24718F7E-15B8-4F55-9E57-68C007FD34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>please do not modify the form; do not introduce new columns; do not introduce new rows; we will process the form automatically!!</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>NaN values are skipped automatically from Pandas so we don't need to throw specific exceptions</t>
+  </si>
+  <si>
+    <t>Could have used more python classes and modules to make the code reusable and modular</t>
+  </si>
+  <si>
+    <t>Some results may be incorrect due to the lack of values and/or not so reliable ones</t>
+  </si>
+  <si>
+    <t>It already handles millions of records, though for very large dataset a more powerful machine may be needed</t>
   </si>
 </sst>
 </file>
@@ -684,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="77" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -904,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -925,7 +934,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="14">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1150,7 +1162,10 @@
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="14">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1170,7 +1185,10 @@
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="14">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/report/HCI/Self Assessment Form - HCI.xlsx
+++ b/report/HCI/Self Assessment Form - HCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\HCI-TWEB_2025-26\report\HCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24718F7E-15B8-4F55-9E57-68C007FD34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACF27B6-2A88-4071-BB7D-E23AB60A5F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,6 +323,14 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -390,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -476,9 +484,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -693,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="77" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1142,7 +1151,7 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1152,7 +1161,7 @@
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1175,7 +1184,7 @@
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1235,7 +1244,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1296,6 +1305,7 @@
       <c r="C57" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
@@ -1397,8 +1407,12 @@
       <c r="A72" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="25">
+        <v>0.5</v>
+      </c>
       <c r="D72" s="25"/>
     </row>
     <row r="73" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/report/HCI/Self Assessment Form - HCI.xlsx
+++ b/report/HCI/Self Assessment Form - HCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\HCI-TWEB_2025-26\report\HCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACF27B6-2A88-4071-BB7D-E23AB60A5F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E879F-EA53-495B-B5E4-D1E9684EC9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>please do not modify the form; do not introduce new columns; do not introduce new rows; we will process the form automatically!!</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>It already handles millions of records, though for very large dataset a more powerful machine may be needed</t>
+  </si>
+  <si>
+    <t>Cleaned roughly half the .csv files containing data, analyzed and created plots and insights regarding the datasets</t>
+  </si>
+  <si>
+    <t>Every difficult-to-understand line of code is well commented. Though, there's room for improvement. The report is described to understand the main steps done during the assignment</t>
   </si>
 </sst>
 </file>
@@ -475,6 +481,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -484,7 +491,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -702,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="77" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -717,12 +723,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -747,12 +753,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1254,7 +1260,7 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1264,7 +1270,7 @@
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1274,7 +1280,7 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1284,7 +1290,7 @@
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1294,7 +1300,7 @@
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1305,7 +1311,7 @@
       <c r="C57" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="39"/>
+      <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
@@ -1350,6 +1356,9 @@
       </c>
       <c r="C64" s="10" t="s">
         <v>48</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1399,8 +1408,12 @@
       <c r="A71" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/report/HCI/Self Assessment Form - HCI.xlsx
+++ b/report/HCI/Self Assessment Form - HCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\HCI-TWEB_2025-26\report\HCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E879F-EA53-495B-B5E4-D1E9684EC9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748C570-5B1B-45AA-AC6A-AC74E9E08F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>please do not modify the form; do not introduce new columns; do not introduce new rows; we will process the form automatically!!</t>
   </si>
@@ -232,6 +232,36 @@
   </si>
   <si>
     <t>Every difficult-to-understand line of code is well commented. Though, there's room for improvement. The report is described to understand the main steps done during the assignment</t>
+  </si>
+  <si>
+    <t>The code was organized in a modular way inside the Jupyter notebook by clearly separating different phases of the work.
+Data loading, data cleaning, feature creation, and analysis were kept in separate sections and cells, following a logical pipeline.
+Even though all the code is contained in the notebook, each step performs a specific task and does not mix preprocessing with analysis or visualization.
+This makes the notebook easy to read, debug, and modify, and allows focusing on one operation at a time.
+Pandas was used extensively to perform efficient data analysis through vectorized operations.
+Functions such as groupby, value_counts, merge, and datetime handling allowed us to process large datasets and extract trends in a concise and readable way without using explicit loops.</t>
+  </si>
+  <si>
+    <t>The original datasets contain missing values, inconsistent formats, and some ambiguous entries, so specific cleaning rules were needed to make the data usable.
+Because the datasets are very large, memory usage was an important concern, and some operations (such as dropping duplicates across chunks) were not feasible without risking RAM saturation.
+We decided to rely on standard Pandas functions for simplicity and reliability, while optimizing the data loading process.
+This included converting columns to more memory-efficient types (for example, using category instead of strings) and selecting only the necessary columns with the usecols parameter.
+A specific issue involved a user with a null username in both the profiles and ratings datasets.
+Replacing this value would have broken the link between the datasets, so the row was dropped to avoid ambiguity.</t>
+  </si>
+  <si>
+    <t>The data analytics strategy was based on asking clear questions and exploring the data step by step.
+Each analysis focused on a specific aspect of the dataset, such as time trends, user behavior, or relationships between variables.
+We paid attention to data quality, filtering out outliers and poorly represented cases to avoid misleading results.
+When needed, data was grouped or aggregated to highlight meaningful patterns instead of random noise.
+This approach is effective because it combines numerical analysis with critical reasoning, not just data processing.</t>
+  </si>
+  <si>
+    <t>The visualization strategy follows the principles taught in the module, focusing on clarity, readability, and purpose.
+Each chart was chosen based on the type of data and the question being answered, trying to avoid unnecessary complexity (even though sometimes we didn't manage to).
+When visualizations became too dense, we simplified them by aggregating data or splitting the analysis into multiple plots.
+Interactivity was used when useful to help compare many categories without overwhelming the viewer.
+Overall, the visualizations are effective because they support the analysis and help communicate insights clearly to non-technical users.</t>
   </si>
 </sst>
 </file>
@@ -404,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -481,7 +511,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -491,6 +520,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -708,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="77" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -723,12 +758,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -753,12 +788,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -999,7 +1034,9 @@
       <c r="C23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
@@ -1137,6 +1174,9 @@
       <c r="C39" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D39" s="39" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="23"/>
@@ -1213,7 +1253,7 @@
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1223,7 +1263,7 @@
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1234,6 +1274,9 @@
       <c r="C49" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="D49" s="39" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="23" t="s">
@@ -1311,7 +1354,9 @@
       <c r="C57" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="34"/>
+      <c r="D57" s="40" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
